--- a/viburnum_h_data_calc.xlsx
+++ b/viburnum_h_data_calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Documents\Viburnum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7F1240-A9C9-4AEE-99AC-53BC7545B46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3D40B4-C4AC-4F79-8254-9609B7643CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="60" windowWidth="10992" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10644" yWindow="300" windowWidth="10164" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="369">
   <si>
     <t>H1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1212,6 +1212,15 @@
   <si>
     <t>Palisade_layer</t>
   </si>
+  <si>
+    <t>mean_leaf_lifespan</t>
+  </si>
+  <si>
+    <t>inflorescence_mass_(g)</t>
+  </si>
+  <si>
+    <t>avg_vein_angle</t>
+  </si>
 </sst>
 </file>
 
@@ -1220,7 +1229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1319,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1325,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1351,13 +1367,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1438,6 +1469,19 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,7 +1585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE75A048-6BF1-4456-B64E-7366231494EC}" type="CELLRANGE">
+                    <a:fld id="{284F649E-65C1-4DDB-9BF9-85C7A0305235}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1575,7 +1619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FA434D6-6C33-44DC-9154-2EBCF7775590}" type="CELLRANGE">
+                    <a:fld id="{0A0BC42D-B289-48D8-A3A9-943E2F644368}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3143,7 +3187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D21A6B32-03F6-447C-B0AB-3213EE45081F}" type="CELLRANGE">
+                    <a:fld id="{59E9613B-4F78-4BE2-9F26-7404BC3D2CD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3182,7 +3226,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92F3EC22-2D6D-4C6B-96C6-E4D828E03C8D}" type="CELLRANGE">
+                    <a:fld id="{E660BE83-3D0E-49D7-880E-F2D3683D2930}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3221,7 +3265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AEEA367-E758-481C-87EE-F7217AEA2A09}" type="CELLRANGE">
+                    <a:fld id="{3D16580D-929C-4D0F-A584-F5250CDDB799}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3260,7 +3304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76BA1B00-02F7-4E51-B5F5-D7720F7F6638}" type="CELLRANGE">
+                    <a:fld id="{B0D3F328-A154-42FC-918E-BBB9F15B50A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3299,7 +3343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{005D7E90-7A80-46E0-A6A8-796D840C1FC2}" type="CELLRANGE">
+                    <a:fld id="{0A70C506-4E71-4ED7-9F83-8FC6FBCF7252}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3338,7 +3382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7CBDB2D-72DC-4581-8DBE-4EEE6D8C3EF3}" type="CELLRANGE">
+                    <a:fld id="{CB057DA2-673D-4F3C-B1FC-C7C0A74D9028}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3377,7 +3421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4EB033E-2517-43D6-A71C-A3414964B6D5}" type="CELLRANGE">
+                    <a:fld id="{039E1CC4-0084-47EF-97A6-FE73A9E5C024}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3416,7 +3460,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AD9FC8B-6187-4F17-AB58-D6FF3271E630}" type="CELLRANGE">
+                    <a:fld id="{26B9BAB9-9CA1-4996-86C2-E1F1C507514C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3455,7 +3499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{359909F8-77CE-4044-8B29-B573D2C2136E}" type="CELLRANGE">
+                    <a:fld id="{C2DA1E9B-900F-4C41-BC05-A50C80D54FEE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3494,7 +3538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7730C3D6-C64A-45DB-AC71-7AC796565827}" type="CELLRANGE">
+                    <a:fld id="{CF6D785E-D918-48CB-833E-A30ABB15995E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3527,7 +3571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D080955-FCF6-4813-8A7C-FBE49B23EBC1}" type="CELLRANGE">
+                    <a:fld id="{CEE0E829-D4C8-47FF-A752-C03D849836F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3567,7 +3611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D642E46-8E7F-41CE-BE5B-DF017EE64E29}" type="CELLRANGE">
+                    <a:fld id="{85021D9B-FC9E-44ED-9FE5-1B2A824E7ACF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3606,7 +3650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C6A3BE1-AB57-4946-ACB9-CF0A14FC564F}" type="CELLRANGE">
+                    <a:fld id="{59173FBD-5523-422F-8257-812AE89877C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3645,7 +3689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5E864EC-67A6-4DA0-9451-41706BFCE957}" type="CELLRANGE">
+                    <a:fld id="{343805C2-A3C5-4E0E-B963-965A17A06DFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3684,7 +3728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{812566F8-3280-4A68-873C-3239AB9AA564}" type="CELLRANGE">
+                    <a:fld id="{7304F095-9D9F-42DE-9E55-244A4BE32A76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3723,7 +3767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F51A7616-60FC-4578-9298-A5A23659F7BE}" type="CELLRANGE">
+                    <a:fld id="{144B9E74-17BC-4BE6-82D6-DC6CA7D280E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3762,7 +3806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4EFE953-CEBE-41F3-93BE-545D0E9F55B9}" type="CELLRANGE">
+                    <a:fld id="{C694387C-4E6D-44E9-8348-F4D02A7F817E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3801,7 +3845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40F72698-C1C9-477B-BDAA-3A9E5DAE03CF}" type="CELLRANGE">
+                    <a:fld id="{D4D65383-6351-4B75-8089-3BBE971BBED0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3840,7 +3884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9D2D5AC-7391-451D-B7BF-C8E7896EC0FC}" type="CELLRANGE">
+                    <a:fld id="{BCEBB054-C089-4AB5-BAD8-3DF09C2A53DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3879,7 +3923,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98CB702A-5590-46EA-A28D-14858A12FFDA}" type="CELLRANGE">
+                    <a:fld id="{799AEA95-6825-4C67-A9DA-D4D1776E7794}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3918,7 +3962,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43184CC7-7C58-4041-A234-BD5E56A84F0D}" type="CELLRANGE">
+                    <a:fld id="{CB151A17-2DCE-407E-AEDE-C3FC1A46FA69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3957,7 +4001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E11C1930-01B2-4BD9-A582-711AD29CCA03}" type="CELLRANGE">
+                    <a:fld id="{BD5DF2AE-7D7A-4EC9-BECA-482EE81F69EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3996,7 +4040,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33ACCB3E-4339-4F41-925F-5F94A13500A8}" type="CELLRANGE">
+                    <a:fld id="{C6216FB3-9E89-4DF1-9851-806BE9609DEE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4035,7 +4079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39F0320B-FED7-4D90-A26E-17D4321CE03E}" type="CELLRANGE">
+                    <a:fld id="{8C36E425-474E-4961-8093-3E6A87D1A5EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4074,7 +4118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17948DD5-E743-4F58-BF8B-C1F59AD7D7D8}" type="CELLRANGE">
+                    <a:fld id="{BC1D2F18-D994-472A-BED4-64909E6E132D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4113,7 +4157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F87904E-B827-4EF3-A60E-E632051C1791}" type="CELLRANGE">
+                    <a:fld id="{70D1BCB5-541B-43BB-8523-7B8E4F41465E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4152,7 +4196,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F762994-6361-490F-81A1-EA0A0420BB06}" type="CELLRANGE">
+                    <a:fld id="{4081E536-45E4-43AB-B39D-DBE5C8465C3A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4191,7 +4235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8FEC1D2-48A6-44A1-AE1C-F5ADE2086A39}" type="CELLRANGE">
+                    <a:fld id="{DA68FE32-D0FE-4C7D-AF26-BB3BE5259565}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4224,7 +4268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB5F258D-9364-4AB8-9FA6-A3A58D5BCD00}" type="CELLRANGE">
+                    <a:fld id="{DBC9D0D0-4F16-42B9-84F8-2CB832D11821}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6963,11 +7007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F442B87C-976A-4250-AC73-55122F5E7EA9}">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AV1009"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR69" sqref="AR69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6991,9 +7035,11 @@
     <col min="33" max="33" width="8.88671875" style="6"/>
     <col min="34" max="38" width="8.88671875" style="1"/>
     <col min="39" max="39" width="8.88671875" style="6"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -7117,8 +7163,18 @@
       <c r="AO1" s="40" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP1" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ1" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AS1" s="42"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>245</v>
       </c>
@@ -7191,8 +7247,14 @@
       <c r="AM2" s="35">
         <v>4.839215990197407</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2">
+        <v>45.917571428571428</v>
+      </c>
+      <c r="AS2" s="42"/>
+    </row>
+    <row r="3" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>263</v>
       </c>
@@ -7265,8 +7327,11 @@
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AS3" s="42"/>
+    </row>
+    <row r="4" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>262</v>
       </c>
@@ -7340,8 +7405,14 @@
       <c r="AO4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4">
+        <v>40.708571428571418</v>
+      </c>
+      <c r="AS4" s="44"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>261</v>
       </c>
@@ -7432,8 +7503,11 @@
       <c r="AO5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AS5" s="42"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>260</v>
       </c>
@@ -7548,8 +7622,15 @@
       <c r="AO6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP6" s="43">
+        <v>27.519480000000001</v>
+      </c>
+      <c r="AQ6" s="43">
+        <v>0.30116667000000003</v>
+      </c>
+      <c r="AS6" s="42"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>259</v>
       </c>
@@ -7632,8 +7713,14 @@
       <c r="AO7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7">
+        <v>55.49388888888889</v>
+      </c>
+      <c r="AS7" s="42"/>
+    </row>
+    <row r="8" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>258</v>
       </c>
@@ -7704,8 +7791,14 @@
       <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8">
+        <v>37.924375000000005</v>
+      </c>
+      <c r="AS8" s="42"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>257</v>
       </c>
@@ -7776,8 +7869,11 @@
       <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AS9" s="42"/>
+    </row>
+    <row r="10" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>256</v>
       </c>
@@ -7848,8 +7944,14 @@
       <c r="AH10"/>
       <c r="AI10"/>
       <c r="AJ10"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10">
+        <v>57.709333333333326</v>
+      </c>
+      <c r="AS10" s="42"/>
+    </row>
+    <row r="11" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>255</v>
       </c>
@@ -7924,8 +8026,14 @@
       <c r="AH11"/>
       <c r="AI11"/>
       <c r="AJ11"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11">
+        <v>60.273124999999993</v>
+      </c>
+      <c r="AS11" s="44"/>
+    </row>
+    <row r="12" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>254</v>
       </c>
@@ -8049,8 +8157,18 @@
       <c r="AO12">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP12" s="43">
+        <v>24.887180000000001</v>
+      </c>
+      <c r="AQ12" s="43">
+        <v>0.92766667000000003</v>
+      </c>
+      <c r="AR12">
+        <v>49.323504290263628</v>
+      </c>
+      <c r="AS12" s="42"/>
+    </row>
+    <row r="13" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>253</v>
       </c>
@@ -8140,8 +8258,14 @@
       <c r="AO13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13">
+        <v>54.356222222222222</v>
+      </c>
+      <c r="AS13" s="42"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>252</v>
       </c>
@@ -8259,8 +8383,18 @@
       <c r="AO14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP14" s="43">
+        <v>26.46847</v>
+      </c>
+      <c r="AQ14" s="43">
+        <v>0.26433332999999998</v>
+      </c>
+      <c r="AR14">
+        <v>33.798400000000001</v>
+      </c>
+      <c r="AS14" s="42"/>
+    </row>
+    <row r="15" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>251</v>
       </c>
@@ -8384,8 +8518,18 @@
       <c r="AO15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP15" s="43">
+        <v>26.43939</v>
+      </c>
+      <c r="AQ15" s="43">
+        <v>0.93045</v>
+      </c>
+      <c r="AR15">
+        <v>33.267090909090911</v>
+      </c>
+      <c r="AS15" s="42"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>250</v>
       </c>
@@ -8456,8 +8600,14 @@
       <c r="AH16"/>
       <c r="AI16"/>
       <c r="AJ16"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16">
+        <v>44.334000000000003</v>
+      </c>
+      <c r="AS16" s="44"/>
+    </row>
+    <row r="17" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>249</v>
       </c>
@@ -8540,8 +8690,14 @@
       <c r="AO17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17">
+        <v>44.136333333333333</v>
+      </c>
+      <c r="AS17" s="42"/>
+    </row>
+    <row r="18" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>248</v>
       </c>
@@ -8612,8 +8768,14 @@
       <c r="AH18"/>
       <c r="AI18"/>
       <c r="AJ18"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18">
+        <v>40.460166666666659</v>
+      </c>
+      <c r="AS18" s="42"/>
+    </row>
+    <row r="19" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>247</v>
       </c>
@@ -8692,8 +8854,14 @@
       <c r="AM19" s="35">
         <v>2.3218696027465331</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19">
+        <v>62.725374999999993</v>
+      </c>
+      <c r="AS19" s="42"/>
+    </row>
+    <row r="20" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>246</v>
       </c>
@@ -8767,8 +8935,14 @@
       <c r="AO20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20">
+        <v>43.122375000000005</v>
+      </c>
+      <c r="AS20" s="42"/>
+    </row>
+    <row r="21" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>272</v>
       </c>
@@ -8892,8 +9066,18 @@
       <c r="AO21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP21" s="43">
+        <v>26.544440000000002</v>
+      </c>
+      <c r="AQ21" s="43">
+        <v>0.20888888999999999</v>
+      </c>
+      <c r="AR21">
+        <v>45.304250000000003</v>
+      </c>
+      <c r="AS21" s="42"/>
+    </row>
+    <row r="22" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>271</v>
       </c>
@@ -9017,8 +9201,18 @@
       <c r="AO22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP22" s="43">
+        <v>22.433209999999999</v>
+      </c>
+      <c r="AQ22" s="43">
+        <v>0.39555555999999997</v>
+      </c>
+      <c r="AR22">
+        <v>36.826142857142848</v>
+      </c>
+      <c r="AS22" s="42"/>
+    </row>
+    <row r="23" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>270</v>
       </c>
@@ -9142,8 +9336,18 @@
       <c r="AO23">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP23" s="43">
+        <v>24.90278</v>
+      </c>
+      <c r="AQ23" s="43">
+        <v>0.63557143000000005</v>
+      </c>
+      <c r="AR23">
+        <v>37.870699999999999</v>
+      </c>
+      <c r="AS23" s="42"/>
+    </row>
+    <row r="24" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>269</v>
       </c>
@@ -9222,8 +9426,11 @@
       <c r="AM24" s="35">
         <v>4.2193563965306939</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AS24" s="42"/>
+    </row>
+    <row r="25" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
         <v>268</v>
       </c>
@@ -9347,8 +9554,16 @@
       <c r="AO25">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="43">
+        <v>1.6247777800000001</v>
+      </c>
+      <c r="AR25">
+        <v>30.922083333333333</v>
+      </c>
+      <c r="AS25" s="42"/>
+    </row>
+    <row r="26" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>267</v>
       </c>
@@ -9431,8 +9646,14 @@
       <c r="AO26">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26">
+        <v>32.968166666666662</v>
+      </c>
+      <c r="AS26" s="42"/>
+    </row>
+    <row r="27" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
         <v>266</v>
       </c>
@@ -9556,8 +9777,18 @@
       <c r="AO27">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP27" s="43">
+        <v>25.43085</v>
+      </c>
+      <c r="AQ27" s="43">
+        <v>9.7666669999999997E-2</v>
+      </c>
+      <c r="AR27">
+        <v>37.814909090909083</v>
+      </c>
+      <c r="AS27" s="42"/>
+    </row>
+    <row r="28" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>265</v>
       </c>
@@ -9634,8 +9865,14 @@
       <c r="AO28">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28">
+        <v>42.040444444444447</v>
+      </c>
+      <c r="AS28" s="44"/>
+    </row>
+    <row r="29" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>264</v>
       </c>
@@ -9708,8 +9945,14 @@
       <c r="AJ29"/>
       <c r="AN29" s="34"/>
       <c r="AO29" s="34"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29">
+        <v>34.683857142857143</v>
+      </c>
+      <c r="AS29" s="42"/>
+    </row>
+    <row r="30" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>274</v>
       </c>
@@ -9833,8 +10076,18 @@
       <c r="AO30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AP30" s="43">
+        <v>23.627359999999999</v>
+      </c>
+      <c r="AQ30" s="43">
+        <v>0.81622222</v>
+      </c>
+      <c r="AR30">
+        <v>55.173142857142857</v>
+      </c>
+      <c r="AS30" s="42"/>
+    </row>
+    <row r="31" spans="1:48" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
         <v>273</v>
       </c>
@@ -9921,8 +10174,15 @@
       <c r="AO31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31">
+        <v>41.142571428571429</v>
+      </c>
+      <c r="AS31" s="44"/>
+      <c r="AV31"/>
+    </row>
+    <row r="32" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>293</v>
       </c>
@@ -9995,8 +10255,15 @@
       <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32">
+        <v>34.5715</v>
+      </c>
+      <c r="AS32" s="42"/>
+      <c r="AV32" s="34"/>
+    </row>
+    <row r="33" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>278</v>
       </c>
@@ -10120,8 +10387,18 @@
       <c r="AO33">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP33" s="43">
+        <v>21.712119999999999</v>
+      </c>
+      <c r="AQ33" s="43">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="AR33">
+        <v>45.620133333333328</v>
+      </c>
+      <c r="AS33" s="42"/>
+    </row>
+    <row r="34" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>277</v>
       </c>
@@ -10192,8 +10469,11 @@
       <c r="AH34"/>
       <c r="AI34"/>
       <c r="AJ34"/>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AS34" s="42"/>
+    </row>
+    <row r="35" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
         <v>276</v>
       </c>
@@ -10269,8 +10549,15 @@
       <c r="AO35">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP35" s="43">
+        <v>26.363299999999999</v>
+      </c>
+      <c r="AQ35" s="43">
+        <v>0.58633332999999999</v>
+      </c>
+      <c r="AS35" s="42"/>
+    </row>
+    <row r="36" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
         <v>275</v>
       </c>
@@ -10349,8 +10636,11 @@
       <c r="AO36">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AS36" s="44"/>
+    </row>
+    <row r="37" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>282</v>
       </c>
@@ -10435,8 +10725,14 @@
       <c r="AO37">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37">
+        <v>61.502499999999998</v>
+      </c>
+      <c r="AS37" s="42"/>
+    </row>
+    <row r="38" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>281</v>
       </c>
@@ -10518,8 +10814,14 @@
       <c r="AM38" s="35">
         <v>5.639096460134617</v>
       </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38">
+        <v>61.251199999999997</v>
+      </c>
+      <c r="AS38" s="42"/>
+    </row>
+    <row r="39" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>280</v>
       </c>
@@ -10643,8 +10945,18 @@
       <c r="AO39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP39" s="43">
+        <v>25.2029</v>
+      </c>
+      <c r="AQ39" s="43">
+        <v>0.35077777999999998</v>
+      </c>
+      <c r="AR39">
+        <v>45.779454545454541</v>
+      </c>
+      <c r="AS39" s="42"/>
+    </row>
+    <row r="40" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>279</v>
       </c>
@@ -10721,8 +11033,14 @@
       <c r="AH40"/>
       <c r="AI40"/>
       <c r="AJ40"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40">
+        <v>35.986363636363642</v>
+      </c>
+      <c r="AS40" s="42"/>
+    </row>
+    <row r="41" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>221</v>
       </c>
@@ -10846,8 +11164,18 @@
       <c r="AO41">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP41" s="43">
+        <v>27.930230000000002</v>
+      </c>
+      <c r="AQ41" s="43">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="AR41">
+        <v>30.416444444444444</v>
+      </c>
+      <c r="AS41" s="42"/>
+    </row>
+    <row r="42" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>220</v>
       </c>
@@ -10918,8 +11246,11 @@
       <c r="AH42"/>
       <c r="AI42"/>
       <c r="AJ42"/>
-    </row>
-    <row r="43" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AS42" s="44"/>
+    </row>
+    <row r="43" spans="1:48" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>218</v>
       </c>
@@ -11004,8 +11335,13 @@
       <c r="AM43" s="6"/>
       <c r="AN43"/>
       <c r="AO43"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="43"/>
+      <c r="AR43"/>
+      <c r="AS43" s="42"/>
+      <c r="AV43"/>
+    </row>
+    <row r="44" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>219</v>
       </c>
@@ -11087,8 +11423,12 @@
       <c r="AM44" s="35">
         <v>2.344672672313322</v>
       </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP44" s="43"/>
+      <c r="AQ44" s="43"/>
+      <c r="AS44" s="42"/>
+      <c r="AV44" s="34"/>
+    </row>
+    <row r="45" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>217</v>
       </c>
@@ -11202,8 +11542,18 @@
       <c r="AO45">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP45" s="43">
+        <v>15.22817</v>
+      </c>
+      <c r="AQ45" s="43">
+        <v>0.76422221999999995</v>
+      </c>
+      <c r="AR45">
+        <v>51.883400000000002</v>
+      </c>
+      <c r="AS45" s="42"/>
+    </row>
+    <row r="46" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>216</v>
       </c>
@@ -11285,8 +11635,14 @@
       <c r="AM46" s="35">
         <v>1.5385525751005105</v>
       </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46">
+        <v>46.667875000000002</v>
+      </c>
+      <c r="AS46" s="42"/>
+    </row>
+    <row r="47" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
         <v>215</v>
       </c>
@@ -11363,8 +11719,11 @@
       <c r="AO47">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP47" s="46"/>
+      <c r="AQ47" s="46"/>
+      <c r="AS47" s="45"/>
+    </row>
+    <row r="48" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
         <v>214</v>
       </c>
@@ -11445,8 +11804,14 @@
       <c r="AO48">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AP48" s="43"/>
+      <c r="AQ48" s="43"/>
+      <c r="AR48">
+        <v>19.228999999999999</v>
+      </c>
+      <c r="AS48" s="42"/>
+    </row>
+    <row r="49" spans="1:48" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>213</v>
       </c>
@@ -11527,8 +11892,12 @@
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="6"/>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AR49">
+        <v>35.109307692307695</v>
+      </c>
+      <c r="AV49"/>
+    </row>
+    <row r="50" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>289</v>
       </c>
@@ -11646,8 +12015,19 @@
       <c r="AO50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP50" s="43">
+        <v>25.237290000000002</v>
+      </c>
+      <c r="AQ50" s="43">
+        <v>0.56055555999999995</v>
+      </c>
+      <c r="AR50">
+        <v>49.846846153846158</v>
+      </c>
+      <c r="AS50" s="42"/>
+      <c r="AV50" s="34"/>
+    </row>
+    <row r="51" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
         <v>288</v>
       </c>
@@ -11715,8 +12095,14 @@
       <c r="Y51" s="30">
         <v>5.4291126179248556E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP51" s="42"/>
+      <c r="AQ51" s="42"/>
+      <c r="AR51">
+        <v>33.460500000000003</v>
+      </c>
+      <c r="AS51" s="42"/>
+    </row>
+    <row r="52" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>287</v>
       </c>
@@ -11840,8 +12226,18 @@
       <c r="AO52">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP52" s="43">
+        <v>20.970410000000001</v>
+      </c>
+      <c r="AQ52" s="43">
+        <v>1.40833333</v>
+      </c>
+      <c r="AR52">
+        <v>42.206562500000004</v>
+      </c>
+      <c r="AS52" s="42"/>
+    </row>
+    <row r="53" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>286</v>
       </c>
@@ -11965,8 +12361,18 @@
       <c r="AO53">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP53" s="43">
+        <v>25.196629999999999</v>
+      </c>
+      <c r="AQ53" s="43">
+        <v>0.80355555999999995</v>
+      </c>
+      <c r="AR53">
+        <v>30.282499999999999</v>
+      </c>
+      <c r="AS53" s="42"/>
+    </row>
+    <row r="54" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>285</v>
       </c>
@@ -12084,8 +12490,18 @@
       <c r="AO54">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP54" s="43">
+        <v>27.240379999999998</v>
+      </c>
+      <c r="AQ54" s="43">
+        <v>0.71977778000000003</v>
+      </c>
+      <c r="AR54">
+        <v>34.595500000000008</v>
+      </c>
+      <c r="AS54" s="42"/>
+    </row>
+    <row r="55" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
         <v>284</v>
       </c>
@@ -12162,8 +12578,14 @@
       <c r="AO55">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP55" s="43"/>
+      <c r="AQ55" s="43"/>
+      <c r="AR55">
+        <v>49.474900000000005</v>
+      </c>
+      <c r="AS55" s="42"/>
+    </row>
+    <row r="56" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>283</v>
       </c>
@@ -12281,8 +12703,15 @@
       <c r="AO56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP56" s="43">
+        <v>24.09375</v>
+      </c>
+      <c r="AQ56" s="43">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="AS56" s="42"/>
+    </row>
+    <row r="57" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>243</v>
       </c>
@@ -12361,8 +12790,14 @@
       <c r="AM57" s="35">
         <v>2.9411099168360657</v>
       </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP57" s="42"/>
+      <c r="AQ57" s="42"/>
+      <c r="AR57">
+        <v>55.355727272727272</v>
+      </c>
+      <c r="AS57" s="42"/>
+    </row>
+    <row r="58" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
         <v>244</v>
       </c>
@@ -12447,8 +12882,14 @@
       <c r="AO58">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP58" s="42"/>
+      <c r="AQ58" s="42"/>
+      <c r="AR58">
+        <v>41.535299999999992</v>
+      </c>
+      <c r="AS58" s="42"/>
+    </row>
+    <row r="59" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
         <v>233</v>
       </c>
@@ -12563,8 +13004,18 @@
       <c r="AO59">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP59" s="46">
+        <v>26.38776</v>
+      </c>
+      <c r="AQ59" s="46">
+        <v>0.41283333</v>
+      </c>
+      <c r="AR59">
+        <v>34.901624999999996</v>
+      </c>
+      <c r="AS59" s="45"/>
+    </row>
+    <row r="60" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
         <v>232</v>
       </c>
@@ -12688,8 +13139,18 @@
       <c r="AO60">
         <v>72</v>
       </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP60" s="43">
+        <v>25.616109999999999</v>
+      </c>
+      <c r="AQ60" s="43">
+        <v>0.75011110999999997</v>
+      </c>
+      <c r="AR60">
+        <v>58.212299999999992</v>
+      </c>
+      <c r="AS60" s="42"/>
+    </row>
+    <row r="61" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>231</v>
       </c>
@@ -12774,8 +13235,14 @@
       <c r="AO61">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP61" s="42"/>
+      <c r="AQ61" s="42"/>
+      <c r="AR61">
+        <v>32.203181818181811</v>
+      </c>
+      <c r="AS61" s="42"/>
+    </row>
+    <row r="62" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
         <v>230</v>
       </c>
@@ -12857,8 +13324,14 @@
       <c r="AO62">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP62" s="42"/>
+      <c r="AQ62" s="42"/>
+      <c r="AR62">
+        <v>40.479285714285716</v>
+      </c>
+      <c r="AS62" s="42"/>
+    </row>
+    <row r="63" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
         <v>229</v>
       </c>
@@ -12932,8 +13405,11 @@
       <c r="AO63">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP63" s="45"/>
+      <c r="AQ63" s="45"/>
+      <c r="AS63" s="45"/>
+    </row>
+    <row r="64" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19" t="s">
         <v>228</v>
       </c>
@@ -13057,8 +13533,18 @@
       <c r="AO64">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP64" s="43">
+        <v>18.880600000000001</v>
+      </c>
+      <c r="AQ64" s="43">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AR64">
+        <v>39.877857142857138</v>
+      </c>
+      <c r="AS64" s="42"/>
+    </row>
+    <row r="65" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>227</v>
       </c>
@@ -13182,8 +13668,18 @@
       <c r="AO65">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:41" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AP65" s="43">
+        <v>20.527270000000001</v>
+      </c>
+      <c r="AQ65" s="43">
+        <v>0.49033333000000001</v>
+      </c>
+      <c r="AR65">
+        <v>49.263090909090913</v>
+      </c>
+      <c r="AS65" s="42"/>
+    </row>
+    <row r="66" spans="1:48" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
         <v>226</v>
       </c>
@@ -13266,8 +13762,13 @@
       <c r="AM66" s="6"/>
       <c r="AN66"/>
       <c r="AO66"/>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP66" s="42"/>
+      <c r="AQ66" s="42"/>
+      <c r="AR66"/>
+      <c r="AS66" s="42"/>
+      <c r="AV66"/>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>225</v>
       </c>
@@ -13391,8 +13892,15 @@
       <c r="AO67">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP67" s="45"/>
+      <c r="AQ67" s="45"/>
+      <c r="AR67">
+        <v>35.550249999999998</v>
+      </c>
+      <c r="AS67" s="45"/>
+      <c r="AV67" s="34"/>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>224</v>
       </c>
@@ -13464,8 +13972,14 @@
       <c r="AH68"/>
       <c r="AI68"/>
       <c r="AJ68"/>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP68" s="45"/>
+      <c r="AQ68" s="45"/>
+      <c r="AR68">
+        <v>39.021714285714275</v>
+      </c>
+      <c r="AS68" s="45"/>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>223</v>
       </c>
@@ -13537,7 +14051,7 @@
       <c r="AI69"/>
       <c r="AJ69"/>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>222</v>
       </c>
@@ -13661,8 +14175,18 @@
       <c r="AO70">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP70" s="46">
+        <v>26.7377</v>
+      </c>
+      <c r="AQ70" s="46">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AR70">
+        <v>36.803125000000009</v>
+      </c>
+      <c r="AS70" s="45"/>
+    </row>
+    <row r="71" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
         <v>240</v>
       </c>
@@ -13743,8 +14267,14 @@
       <c r="AO71">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP71" s="45"/>
+      <c r="AQ71" s="45"/>
+      <c r="AR71">
+        <v>42.131714285714288</v>
+      </c>
+      <c r="AS71" s="45"/>
+    </row>
+    <row r="72" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
         <v>239</v>
       </c>
@@ -13830,8 +14360,14 @@
       <c r="AO72">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP72" s="42"/>
+      <c r="AQ72" s="42"/>
+      <c r="AR72">
+        <v>33.458999999999996</v>
+      </c>
+      <c r="AS72" s="42"/>
+    </row>
+    <row r="73" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
         <v>238</v>
       </c>
@@ -13908,8 +14444,14 @@
       <c r="AO73">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP73" s="42"/>
+      <c r="AQ73" s="42"/>
+      <c r="AR73">
+        <v>59.639100000000006</v>
+      </c>
+      <c r="AS73" s="42"/>
+    </row>
+    <row r="74" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="19" t="s">
         <v>237</v>
       </c>
@@ -13999,8 +14541,14 @@
       <c r="AO74">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP74" s="42"/>
+      <c r="AQ74" s="42"/>
+      <c r="AR74">
+        <v>28.112499999999997</v>
+      </c>
+      <c r="AS74" s="42"/>
+    </row>
+    <row r="75" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
         <v>236</v>
       </c>
@@ -14120,8 +14668,15 @@
       <c r="AO75">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP75" s="43">
+        <v>25.965910000000001</v>
+      </c>
+      <c r="AQ75" s="43">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AS75" s="42"/>
+    </row>
+    <row r="76" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
         <v>235</v>
       </c>
@@ -14198,8 +14753,11 @@
       <c r="AO76">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP76" s="43"/>
+      <c r="AQ76" s="43"/>
+      <c r="AS76" s="42"/>
+    </row>
+    <row r="77" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="19" t="s">
         <v>234</v>
       </c>
@@ -14323,8 +14881,14 @@
       <c r="AO77">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP77" s="42"/>
+      <c r="AQ77" s="42"/>
+      <c r="AR77">
+        <v>39.003714285714288</v>
+      </c>
+      <c r="AS77" s="42"/>
+    </row>
+    <row r="78" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="19" t="s">
         <v>242</v>
       </c>
@@ -14444,8 +15008,13 @@
       <c r="AO78">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP78" s="42"/>
+      <c r="AQ78" s="43">
+        <v>0.71077778000000003</v>
+      </c>
+      <c r="AS78" s="42"/>
+    </row>
+    <row r="79" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
         <v>241</v>
       </c>
@@ -14569,8 +15138,4668 @@
       <c r="AO79">
         <v>18</v>
       </c>
+      <c r="AP79" s="43">
+        <v>21.282050000000002</v>
+      </c>
+      <c r="AQ79" s="43">
+        <v>0.25566666999999998</v>
+      </c>
+      <c r="AS79" s="42"/>
+    </row>
+    <row r="80" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP80" s="42"/>
+      <c r="AQ80" s="42"/>
+      <c r="AS80" s="42"/>
+    </row>
+    <row r="81" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP81" s="42"/>
+      <c r="AQ81" s="42"/>
+      <c r="AS81" s="42"/>
+    </row>
+    <row r="82" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP82" s="42"/>
+      <c r="AQ82" s="42"/>
+      <c r="AS82" s="42"/>
+    </row>
+    <row r="83" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP83" s="42"/>
+      <c r="AQ83" s="42"/>
+      <c r="AS83" s="42"/>
+    </row>
+    <row r="84" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP84" s="42"/>
+      <c r="AQ84" s="42"/>
+      <c r="AS84" s="42"/>
+    </row>
+    <row r="85" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP85" s="42"/>
+      <c r="AQ85" s="42"/>
+      <c r="AS85" s="42"/>
+    </row>
+    <row r="86" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP86" s="42"/>
+      <c r="AQ86" s="42"/>
+      <c r="AS86" s="42"/>
+    </row>
+    <row r="87" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP87" s="42"/>
+      <c r="AQ87" s="42"/>
+      <c r="AS87" s="42"/>
+    </row>
+    <row r="88" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP88" s="42"/>
+      <c r="AQ88" s="42"/>
+      <c r="AS88" s="42"/>
+    </row>
+    <row r="89" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP89" s="42"/>
+      <c r="AQ89" s="42"/>
+      <c r="AS89" s="42"/>
+    </row>
+    <row r="90" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP90" s="42"/>
+      <c r="AQ90" s="42"/>
+      <c r="AS90" s="42"/>
+    </row>
+    <row r="91" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP91" s="42"/>
+      <c r="AQ91" s="42"/>
+      <c r="AS91" s="42"/>
+    </row>
+    <row r="92" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP92" s="42"/>
+      <c r="AQ92" s="42"/>
+      <c r="AS92" s="42"/>
+    </row>
+    <row r="93" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP93" s="42"/>
+      <c r="AQ93" s="42"/>
+      <c r="AS93" s="42"/>
+    </row>
+    <row r="94" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP94" s="42"/>
+      <c r="AQ94" s="42"/>
+      <c r="AS94" s="42"/>
+    </row>
+    <row r="95" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP95" s="42"/>
+      <c r="AQ95" s="42"/>
+      <c r="AS95" s="42"/>
+    </row>
+    <row r="96" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP96" s="42"/>
+      <c r="AQ96" s="42"/>
+      <c r="AS96" s="42"/>
+    </row>
+    <row r="97" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP97" s="42"/>
+      <c r="AQ97" s="42"/>
+      <c r="AS97" s="42"/>
+    </row>
+    <row r="98" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP98" s="42"/>
+      <c r="AQ98" s="42"/>
+      <c r="AS98" s="42"/>
+    </row>
+    <row r="99" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP99" s="42"/>
+      <c r="AQ99" s="42"/>
+      <c r="AS99" s="42"/>
+    </row>
+    <row r="100" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP100" s="42"/>
+      <c r="AQ100" s="42"/>
+      <c r="AS100" s="42"/>
+    </row>
+    <row r="101" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP101" s="42"/>
+      <c r="AQ101" s="42"/>
+      <c r="AS101" s="42"/>
+    </row>
+    <row r="102" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP102" s="42"/>
+      <c r="AQ102" s="42"/>
+      <c r="AS102" s="42"/>
+    </row>
+    <row r="103" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP103" s="42"/>
+      <c r="AQ103" s="42"/>
+      <c r="AS103" s="42"/>
+    </row>
+    <row r="104" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP104" s="42"/>
+      <c r="AQ104" s="42"/>
+      <c r="AS104" s="42"/>
+    </row>
+    <row r="105" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP105" s="42"/>
+      <c r="AQ105" s="42"/>
+      <c r="AS105" s="42"/>
+    </row>
+    <row r="106" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP106" s="42"/>
+      <c r="AQ106" s="42"/>
+      <c r="AS106" s="42"/>
+    </row>
+    <row r="107" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP107" s="42"/>
+      <c r="AQ107" s="42"/>
+      <c r="AS107" s="42"/>
+    </row>
+    <row r="108" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP108" s="42"/>
+      <c r="AQ108" s="42"/>
+      <c r="AS108" s="42"/>
+    </row>
+    <row r="109" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP109" s="42"/>
+      <c r="AQ109" s="42"/>
+      <c r="AS109" s="42"/>
+    </row>
+    <row r="110" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP110" s="42"/>
+      <c r="AQ110" s="42"/>
+      <c r="AS110" s="42"/>
+    </row>
+    <row r="111" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP111" s="42"/>
+      <c r="AQ111" s="42"/>
+      <c r="AS111" s="42"/>
+    </row>
+    <row r="112" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP112" s="42"/>
+      <c r="AQ112" s="42"/>
+      <c r="AS112" s="42"/>
+    </row>
+    <row r="113" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP113" s="42"/>
+      <c r="AQ113" s="42"/>
+      <c r="AS113" s="42"/>
+    </row>
+    <row r="114" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP114" s="42"/>
+      <c r="AQ114" s="42"/>
+      <c r="AS114" s="42"/>
+    </row>
+    <row r="115" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP115" s="42"/>
+      <c r="AQ115" s="42"/>
+      <c r="AS115" s="42"/>
+    </row>
+    <row r="116" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP116" s="42"/>
+      <c r="AQ116" s="42"/>
+      <c r="AS116" s="42"/>
+    </row>
+    <row r="117" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP117" s="42"/>
+      <c r="AQ117" s="42"/>
+      <c r="AS117" s="42"/>
+    </row>
+    <row r="118" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP118" s="42"/>
+      <c r="AQ118" s="42"/>
+      <c r="AS118" s="42"/>
+    </row>
+    <row r="119" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP119" s="42"/>
+      <c r="AQ119" s="42"/>
+      <c r="AS119" s="42"/>
+    </row>
+    <row r="120" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP120" s="42"/>
+      <c r="AQ120" s="42"/>
+      <c r="AS120" s="42"/>
+    </row>
+    <row r="121" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP121" s="42"/>
+      <c r="AQ121" s="42"/>
+      <c r="AS121" s="42"/>
+    </row>
+    <row r="122" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP122" s="42"/>
+      <c r="AQ122" s="42"/>
+      <c r="AS122" s="42"/>
+    </row>
+    <row r="123" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP123" s="42"/>
+      <c r="AQ123" s="42"/>
+      <c r="AS123" s="42"/>
+    </row>
+    <row r="124" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP124" s="42"/>
+      <c r="AQ124" s="42"/>
+      <c r="AS124" s="42"/>
+    </row>
+    <row r="125" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP125" s="42"/>
+      <c r="AQ125" s="42"/>
+      <c r="AS125" s="42"/>
+    </row>
+    <row r="126" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP126" s="42"/>
+      <c r="AQ126" s="42"/>
+      <c r="AS126" s="42"/>
+    </row>
+    <row r="127" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP127" s="42"/>
+      <c r="AQ127" s="42"/>
+      <c r="AS127" s="42"/>
+    </row>
+    <row r="128" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP128" s="42"/>
+      <c r="AQ128" s="42"/>
+      <c r="AS128" s="42"/>
+    </row>
+    <row r="129" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP129" s="42"/>
+      <c r="AQ129" s="42"/>
+      <c r="AS129" s="42"/>
+    </row>
+    <row r="130" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP130" s="42"/>
+      <c r="AQ130" s="42"/>
+      <c r="AS130" s="42"/>
+    </row>
+    <row r="131" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP131" s="42"/>
+      <c r="AQ131" s="42"/>
+      <c r="AS131" s="42"/>
+    </row>
+    <row r="132" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP132" s="42"/>
+      <c r="AQ132" s="42"/>
+      <c r="AS132" s="42"/>
+    </row>
+    <row r="133" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP133" s="42"/>
+      <c r="AQ133" s="42"/>
+      <c r="AS133" s="42"/>
+    </row>
+    <row r="134" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP134" s="42"/>
+      <c r="AQ134" s="42"/>
+      <c r="AS134" s="42"/>
+    </row>
+    <row r="135" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP135" s="42"/>
+      <c r="AQ135" s="42"/>
+      <c r="AS135" s="42"/>
+    </row>
+    <row r="136" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP136" s="42"/>
+      <c r="AQ136" s="42"/>
+      <c r="AS136" s="42"/>
+    </row>
+    <row r="137" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP137" s="42"/>
+      <c r="AQ137" s="42"/>
+      <c r="AS137" s="42"/>
+    </row>
+    <row r="138" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP138" s="42"/>
+      <c r="AQ138" s="42"/>
+      <c r="AS138" s="42"/>
+    </row>
+    <row r="139" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP139" s="42"/>
+      <c r="AQ139" s="42"/>
+      <c r="AS139" s="42"/>
+    </row>
+    <row r="140" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP140" s="42"/>
+      <c r="AQ140" s="42"/>
+      <c r="AS140" s="42"/>
+    </row>
+    <row r="141" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP141" s="42"/>
+      <c r="AQ141" s="42"/>
+      <c r="AS141" s="42"/>
+    </row>
+    <row r="142" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP142" s="42"/>
+      <c r="AQ142" s="42"/>
+      <c r="AS142" s="42"/>
+    </row>
+    <row r="143" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP143" s="42"/>
+      <c r="AQ143" s="42"/>
+      <c r="AS143" s="42"/>
+    </row>
+    <row r="144" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP144" s="42"/>
+      <c r="AQ144" s="42"/>
+      <c r="AS144" s="42"/>
+    </row>
+    <row r="145" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP145" s="42"/>
+      <c r="AQ145" s="42"/>
+      <c r="AS145" s="42"/>
+    </row>
+    <row r="146" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP146" s="42"/>
+      <c r="AQ146" s="42"/>
+      <c r="AS146" s="42"/>
+    </row>
+    <row r="147" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP147" s="42"/>
+      <c r="AQ147" s="42"/>
+      <c r="AS147" s="42"/>
+    </row>
+    <row r="148" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP148" s="42"/>
+      <c r="AQ148" s="42"/>
+      <c r="AS148" s="42"/>
+    </row>
+    <row r="149" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP149" s="42"/>
+      <c r="AQ149" s="42"/>
+      <c r="AS149" s="42"/>
+    </row>
+    <row r="150" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP150" s="42"/>
+      <c r="AQ150" s="42"/>
+      <c r="AS150" s="42"/>
+    </row>
+    <row r="151" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP151" s="42"/>
+      <c r="AQ151" s="42"/>
+      <c r="AS151" s="42"/>
+    </row>
+    <row r="152" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP152" s="42"/>
+      <c r="AQ152" s="42"/>
+      <c r="AS152" s="42"/>
+    </row>
+    <row r="153" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP153" s="42"/>
+      <c r="AQ153" s="42"/>
+      <c r="AS153" s="42"/>
+    </row>
+    <row r="154" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP154" s="42"/>
+      <c r="AQ154" s="42"/>
+      <c r="AS154" s="42"/>
+    </row>
+    <row r="155" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP155" s="42"/>
+      <c r="AQ155" s="42"/>
+      <c r="AS155" s="42"/>
+    </row>
+    <row r="156" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP156" s="42"/>
+      <c r="AQ156" s="42"/>
+      <c r="AS156" s="42"/>
+    </row>
+    <row r="157" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP157" s="42"/>
+      <c r="AQ157" s="42"/>
+      <c r="AS157" s="42"/>
+    </row>
+    <row r="158" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP158" s="42"/>
+      <c r="AQ158" s="42"/>
+      <c r="AS158" s="42"/>
+    </row>
+    <row r="159" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP159" s="42"/>
+      <c r="AQ159" s="42"/>
+      <c r="AS159" s="42"/>
+    </row>
+    <row r="160" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP160" s="42"/>
+      <c r="AQ160" s="42"/>
+      <c r="AS160" s="42"/>
+    </row>
+    <row r="161" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP161" s="42"/>
+      <c r="AQ161" s="42"/>
+      <c r="AS161" s="42"/>
+    </row>
+    <row r="162" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP162" s="42"/>
+      <c r="AQ162" s="42"/>
+      <c r="AS162" s="42"/>
+    </row>
+    <row r="163" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP163" s="42"/>
+      <c r="AQ163" s="42"/>
+      <c r="AS163" s="42"/>
+    </row>
+    <row r="164" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP164" s="42"/>
+      <c r="AQ164" s="42"/>
+      <c r="AS164" s="42"/>
+    </row>
+    <row r="165" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP165" s="42"/>
+      <c r="AQ165" s="42"/>
+      <c r="AS165" s="42"/>
+    </row>
+    <row r="166" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP166" s="42"/>
+      <c r="AQ166" s="42"/>
+      <c r="AS166" s="42"/>
+    </row>
+    <row r="167" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP167" s="42"/>
+      <c r="AQ167" s="42"/>
+      <c r="AS167" s="42"/>
+    </row>
+    <row r="168" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP168" s="42"/>
+      <c r="AQ168" s="42"/>
+      <c r="AS168" s="42"/>
+    </row>
+    <row r="169" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP169" s="42"/>
+      <c r="AQ169" s="42"/>
+      <c r="AS169" s="42"/>
+    </row>
+    <row r="170" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP170" s="42"/>
+      <c r="AQ170" s="42"/>
+      <c r="AS170" s="42"/>
+    </row>
+    <row r="171" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP171" s="42"/>
+      <c r="AQ171" s="42"/>
+      <c r="AS171" s="42"/>
+    </row>
+    <row r="172" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP172" s="42"/>
+      <c r="AQ172" s="42"/>
+      <c r="AS172" s="42"/>
+    </row>
+    <row r="173" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP173" s="42"/>
+      <c r="AQ173" s="42"/>
+      <c r="AS173" s="42"/>
+    </row>
+    <row r="174" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP174" s="42"/>
+      <c r="AQ174" s="42"/>
+      <c r="AS174" s="42"/>
+    </row>
+    <row r="175" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP175" s="42"/>
+      <c r="AQ175" s="42"/>
+      <c r="AS175" s="42"/>
+    </row>
+    <row r="176" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP176" s="42"/>
+      <c r="AQ176" s="42"/>
+      <c r="AS176" s="42"/>
+    </row>
+    <row r="177" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP177" s="42"/>
+      <c r="AQ177" s="42"/>
+      <c r="AS177" s="42"/>
+    </row>
+    <row r="178" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP178" s="42"/>
+      <c r="AQ178" s="42"/>
+      <c r="AS178" s="42"/>
+    </row>
+    <row r="179" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP179" s="42"/>
+      <c r="AQ179" s="42"/>
+      <c r="AS179" s="42"/>
+    </row>
+    <row r="180" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP180" s="42"/>
+      <c r="AQ180" s="42"/>
+      <c r="AS180" s="42"/>
+    </row>
+    <row r="181" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP181" s="42"/>
+      <c r="AQ181" s="42"/>
+      <c r="AS181" s="42"/>
+    </row>
+    <row r="182" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP182" s="42"/>
+      <c r="AQ182" s="42"/>
+      <c r="AS182" s="42"/>
+    </row>
+    <row r="183" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP183" s="42"/>
+      <c r="AQ183" s="42"/>
+      <c r="AS183" s="42"/>
+    </row>
+    <row r="184" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP184" s="42"/>
+      <c r="AQ184" s="42"/>
+      <c r="AS184" s="42"/>
+    </row>
+    <row r="185" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP185" s="42"/>
+      <c r="AQ185" s="42"/>
+      <c r="AS185" s="42"/>
+    </row>
+    <row r="186" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP186" s="42"/>
+      <c r="AQ186" s="42"/>
+      <c r="AS186" s="42"/>
+    </row>
+    <row r="187" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP187" s="42"/>
+      <c r="AQ187" s="42"/>
+      <c r="AS187" s="42"/>
+    </row>
+    <row r="188" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP188" s="42"/>
+      <c r="AQ188" s="42"/>
+      <c r="AS188" s="42"/>
+    </row>
+    <row r="189" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP189" s="42"/>
+      <c r="AQ189" s="42"/>
+      <c r="AS189" s="42"/>
+    </row>
+    <row r="190" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP190" s="42"/>
+      <c r="AQ190" s="42"/>
+      <c r="AS190" s="42"/>
+    </row>
+    <row r="191" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP191" s="42"/>
+      <c r="AQ191" s="42"/>
+      <c r="AS191" s="42"/>
+    </row>
+    <row r="192" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP192" s="42"/>
+      <c r="AQ192" s="42"/>
+      <c r="AS192" s="42"/>
+    </row>
+    <row r="193" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP193" s="42"/>
+      <c r="AQ193" s="42"/>
+      <c r="AS193" s="42"/>
+    </row>
+    <row r="194" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP194" s="42"/>
+      <c r="AQ194" s="42"/>
+      <c r="AS194" s="42"/>
+    </row>
+    <row r="195" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP195" s="42"/>
+      <c r="AQ195" s="42"/>
+      <c r="AS195" s="42"/>
+    </row>
+    <row r="196" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP196" s="42"/>
+      <c r="AQ196" s="42"/>
+      <c r="AS196" s="42"/>
+    </row>
+    <row r="197" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP197" s="42"/>
+      <c r="AQ197" s="42"/>
+      <c r="AS197" s="42"/>
+    </row>
+    <row r="198" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP198" s="42"/>
+      <c r="AQ198" s="42"/>
+      <c r="AS198" s="42"/>
+    </row>
+    <row r="199" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP199" s="42"/>
+      <c r="AQ199" s="42"/>
+      <c r="AS199" s="42"/>
+    </row>
+    <row r="200" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP200" s="42"/>
+      <c r="AQ200" s="42"/>
+      <c r="AS200" s="42"/>
+    </row>
+    <row r="201" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP201" s="42"/>
+      <c r="AQ201" s="42"/>
+      <c r="AS201" s="42"/>
+    </row>
+    <row r="202" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP202" s="42"/>
+      <c r="AQ202" s="42"/>
+      <c r="AS202" s="42"/>
+    </row>
+    <row r="203" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP203" s="42"/>
+      <c r="AQ203" s="42"/>
+      <c r="AS203" s="42"/>
+    </row>
+    <row r="204" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP204" s="42"/>
+      <c r="AQ204" s="42"/>
+      <c r="AS204" s="42"/>
+    </row>
+    <row r="205" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP205" s="42"/>
+      <c r="AQ205" s="42"/>
+      <c r="AS205" s="42"/>
+    </row>
+    <row r="206" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP206" s="42"/>
+      <c r="AQ206" s="42"/>
+      <c r="AS206" s="42"/>
+    </row>
+    <row r="207" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP207" s="42"/>
+      <c r="AQ207" s="42"/>
+      <c r="AS207" s="42"/>
+    </row>
+    <row r="208" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP208" s="42"/>
+      <c r="AQ208" s="42"/>
+      <c r="AS208" s="42"/>
+    </row>
+    <row r="209" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP209" s="42"/>
+      <c r="AQ209" s="42"/>
+      <c r="AS209" s="42"/>
+    </row>
+    <row r="210" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP210" s="42"/>
+      <c r="AQ210" s="42"/>
+      <c r="AS210" s="42"/>
+    </row>
+    <row r="211" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP211" s="42"/>
+      <c r="AQ211" s="42"/>
+      <c r="AS211" s="42"/>
+    </row>
+    <row r="212" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP212" s="42"/>
+      <c r="AQ212" s="42"/>
+      <c r="AS212" s="42"/>
+    </row>
+    <row r="213" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP213" s="42"/>
+      <c r="AQ213" s="42"/>
+      <c r="AS213" s="42"/>
+    </row>
+    <row r="214" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP214" s="42"/>
+      <c r="AQ214" s="42"/>
+      <c r="AS214" s="42"/>
+    </row>
+    <row r="215" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP215" s="42"/>
+      <c r="AQ215" s="42"/>
+      <c r="AS215" s="42"/>
+    </row>
+    <row r="216" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP216" s="42"/>
+      <c r="AQ216" s="42"/>
+      <c r="AS216" s="42"/>
+    </row>
+    <row r="217" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP217" s="42"/>
+      <c r="AQ217" s="42"/>
+      <c r="AS217" s="42"/>
+    </row>
+    <row r="218" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP218" s="42"/>
+      <c r="AQ218" s="42"/>
+      <c r="AS218" s="42"/>
+    </row>
+    <row r="219" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP219" s="42"/>
+      <c r="AQ219" s="42"/>
+      <c r="AS219" s="42"/>
+    </row>
+    <row r="220" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP220" s="42"/>
+      <c r="AQ220" s="42"/>
+      <c r="AS220" s="42"/>
+    </row>
+    <row r="221" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP221" s="42"/>
+      <c r="AQ221" s="42"/>
+      <c r="AS221" s="42"/>
+    </row>
+    <row r="222" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP222" s="42"/>
+      <c r="AQ222" s="42"/>
+      <c r="AS222" s="42"/>
+    </row>
+    <row r="223" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP223" s="42"/>
+      <c r="AQ223" s="42"/>
+      <c r="AS223" s="42"/>
+    </row>
+    <row r="224" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP224" s="42"/>
+      <c r="AQ224" s="42"/>
+      <c r="AS224" s="42"/>
+    </row>
+    <row r="225" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP225" s="42"/>
+      <c r="AQ225" s="42"/>
+      <c r="AS225" s="42"/>
+    </row>
+    <row r="226" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP226" s="42"/>
+      <c r="AQ226" s="42"/>
+      <c r="AS226" s="42"/>
+    </row>
+    <row r="227" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP227" s="42"/>
+      <c r="AQ227" s="42"/>
+      <c r="AS227" s="42"/>
+    </row>
+    <row r="228" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP228" s="42"/>
+      <c r="AQ228" s="42"/>
+      <c r="AS228" s="42"/>
+    </row>
+    <row r="229" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP229" s="42"/>
+      <c r="AQ229" s="42"/>
+      <c r="AS229" s="42"/>
+    </row>
+    <row r="230" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP230" s="42"/>
+      <c r="AQ230" s="42"/>
+      <c r="AS230" s="42"/>
+    </row>
+    <row r="231" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP231" s="42"/>
+      <c r="AQ231" s="42"/>
+      <c r="AS231" s="42"/>
+    </row>
+    <row r="232" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP232" s="42"/>
+      <c r="AQ232" s="42"/>
+      <c r="AS232" s="42"/>
+    </row>
+    <row r="233" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP233" s="42"/>
+      <c r="AQ233" s="42"/>
+      <c r="AS233" s="42"/>
+    </row>
+    <row r="234" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP234" s="42"/>
+      <c r="AQ234" s="42"/>
+      <c r="AS234" s="42"/>
+    </row>
+    <row r="235" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP235" s="42"/>
+      <c r="AQ235" s="42"/>
+      <c r="AS235" s="42"/>
+    </row>
+    <row r="236" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP236" s="42"/>
+      <c r="AQ236" s="42"/>
+      <c r="AS236" s="42"/>
+    </row>
+    <row r="237" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP237" s="42"/>
+      <c r="AQ237" s="42"/>
+      <c r="AS237" s="42"/>
+    </row>
+    <row r="238" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP238" s="42"/>
+      <c r="AQ238" s="42"/>
+      <c r="AS238" s="42"/>
+    </row>
+    <row r="239" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP239" s="42"/>
+      <c r="AQ239" s="42"/>
+      <c r="AS239" s="42"/>
+    </row>
+    <row r="240" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP240" s="42"/>
+      <c r="AQ240" s="42"/>
+      <c r="AS240" s="42"/>
+    </row>
+    <row r="241" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP241" s="42"/>
+      <c r="AQ241" s="42"/>
+      <c r="AS241" s="42"/>
+    </row>
+    <row r="242" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP242" s="42"/>
+      <c r="AQ242" s="42"/>
+      <c r="AS242" s="42"/>
+    </row>
+    <row r="243" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP243" s="42"/>
+      <c r="AQ243" s="42"/>
+      <c r="AS243" s="42"/>
+    </row>
+    <row r="244" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP244" s="42"/>
+      <c r="AQ244" s="42"/>
+      <c r="AS244" s="42"/>
+    </row>
+    <row r="245" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP245" s="42"/>
+      <c r="AQ245" s="42"/>
+      <c r="AS245" s="42"/>
+    </row>
+    <row r="246" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP246" s="42"/>
+      <c r="AQ246" s="42"/>
+      <c r="AS246" s="42"/>
+    </row>
+    <row r="247" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP247" s="42"/>
+      <c r="AQ247" s="42"/>
+      <c r="AS247" s="42"/>
+    </row>
+    <row r="248" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP248" s="42"/>
+      <c r="AQ248" s="42"/>
+      <c r="AS248" s="42"/>
+    </row>
+    <row r="249" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP249" s="42"/>
+      <c r="AQ249" s="42"/>
+      <c r="AS249" s="42"/>
+    </row>
+    <row r="250" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP250" s="42"/>
+      <c r="AQ250" s="42"/>
+      <c r="AS250" s="42"/>
+    </row>
+    <row r="251" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP251" s="42"/>
+      <c r="AQ251" s="42"/>
+      <c r="AS251" s="42"/>
+    </row>
+    <row r="252" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP252" s="42"/>
+      <c r="AQ252" s="42"/>
+      <c r="AS252" s="42"/>
+    </row>
+    <row r="253" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP253" s="42"/>
+      <c r="AQ253" s="42"/>
+      <c r="AS253" s="42"/>
+    </row>
+    <row r="254" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP254" s="42"/>
+      <c r="AQ254" s="42"/>
+      <c r="AS254" s="42"/>
+    </row>
+    <row r="255" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP255" s="42"/>
+      <c r="AQ255" s="42"/>
+      <c r="AS255" s="42"/>
+    </row>
+    <row r="256" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP256" s="42"/>
+      <c r="AQ256" s="42"/>
+      <c r="AS256" s="42"/>
+    </row>
+    <row r="257" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP257" s="42"/>
+      <c r="AQ257" s="42"/>
+      <c r="AS257" s="42"/>
+    </row>
+    <row r="258" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP258" s="42"/>
+      <c r="AQ258" s="42"/>
+      <c r="AS258" s="42"/>
+    </row>
+    <row r="259" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP259" s="42"/>
+      <c r="AQ259" s="42"/>
+      <c r="AS259" s="42"/>
+    </row>
+    <row r="260" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP260" s="42"/>
+      <c r="AQ260" s="42"/>
+      <c r="AS260" s="42"/>
+    </row>
+    <row r="261" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP261" s="42"/>
+      <c r="AQ261" s="42"/>
+      <c r="AS261" s="42"/>
+    </row>
+    <row r="262" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP262" s="42"/>
+      <c r="AQ262" s="42"/>
+      <c r="AS262" s="42"/>
+    </row>
+    <row r="263" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP263" s="42"/>
+      <c r="AQ263" s="42"/>
+      <c r="AS263" s="42"/>
+    </row>
+    <row r="264" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP264" s="42"/>
+      <c r="AQ264" s="42"/>
+      <c r="AS264" s="42"/>
+    </row>
+    <row r="265" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP265" s="42"/>
+      <c r="AQ265" s="42"/>
+      <c r="AS265" s="42"/>
+    </row>
+    <row r="266" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP266" s="42"/>
+      <c r="AQ266" s="42"/>
+      <c r="AS266" s="42"/>
+    </row>
+    <row r="267" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP267" s="42"/>
+      <c r="AQ267" s="42"/>
+      <c r="AS267" s="42"/>
+    </row>
+    <row r="268" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP268" s="42"/>
+      <c r="AQ268" s="42"/>
+      <c r="AS268" s="42"/>
+    </row>
+    <row r="269" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP269" s="42"/>
+      <c r="AQ269" s="42"/>
+      <c r="AS269" s="42"/>
+    </row>
+    <row r="270" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP270" s="42"/>
+      <c r="AQ270" s="42"/>
+      <c r="AS270" s="42"/>
+    </row>
+    <row r="271" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP271" s="42"/>
+      <c r="AQ271" s="42"/>
+      <c r="AS271" s="42"/>
+    </row>
+    <row r="272" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP272" s="42"/>
+      <c r="AQ272" s="42"/>
+      <c r="AS272" s="42"/>
+    </row>
+    <row r="273" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP273" s="42"/>
+      <c r="AQ273" s="42"/>
+      <c r="AS273" s="42"/>
+    </row>
+    <row r="274" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP274" s="42"/>
+      <c r="AQ274" s="42"/>
+      <c r="AS274" s="42"/>
+    </row>
+    <row r="275" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP275" s="42"/>
+      <c r="AQ275" s="42"/>
+      <c r="AS275" s="42"/>
+    </row>
+    <row r="276" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP276" s="42"/>
+      <c r="AQ276" s="42"/>
+      <c r="AS276" s="42"/>
+    </row>
+    <row r="277" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP277" s="42"/>
+      <c r="AQ277" s="42"/>
+      <c r="AS277" s="42"/>
+    </row>
+    <row r="278" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP278" s="42"/>
+      <c r="AQ278" s="42"/>
+      <c r="AS278" s="42"/>
+    </row>
+    <row r="279" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP279" s="42"/>
+      <c r="AQ279" s="42"/>
+      <c r="AS279" s="42"/>
+    </row>
+    <row r="280" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP280" s="42"/>
+      <c r="AQ280" s="42"/>
+      <c r="AS280" s="42"/>
+    </row>
+    <row r="281" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP281" s="42"/>
+      <c r="AQ281" s="42"/>
+      <c r="AS281" s="42"/>
+    </row>
+    <row r="282" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP282" s="42"/>
+      <c r="AQ282" s="42"/>
+      <c r="AS282" s="42"/>
+    </row>
+    <row r="283" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP283" s="42"/>
+      <c r="AQ283" s="42"/>
+      <c r="AS283" s="42"/>
+    </row>
+    <row r="284" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP284" s="42"/>
+      <c r="AQ284" s="42"/>
+      <c r="AS284" s="42"/>
+    </row>
+    <row r="285" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP285" s="42"/>
+      <c r="AQ285" s="42"/>
+      <c r="AS285" s="42"/>
+    </row>
+    <row r="286" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP286" s="42"/>
+      <c r="AQ286" s="42"/>
+      <c r="AS286" s="42"/>
+    </row>
+    <row r="287" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP287" s="42"/>
+      <c r="AQ287" s="42"/>
+      <c r="AS287" s="42"/>
+    </row>
+    <row r="288" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP288" s="42"/>
+      <c r="AQ288" s="42"/>
+      <c r="AS288" s="42"/>
+    </row>
+    <row r="289" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP289" s="42"/>
+      <c r="AQ289" s="42"/>
+      <c r="AS289" s="42"/>
+    </row>
+    <row r="290" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP290" s="42"/>
+      <c r="AQ290" s="42"/>
+      <c r="AS290" s="42"/>
+    </row>
+    <row r="291" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP291" s="42"/>
+      <c r="AQ291" s="42"/>
+      <c r="AS291" s="42"/>
+    </row>
+    <row r="292" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP292" s="42"/>
+      <c r="AQ292" s="42"/>
+      <c r="AS292" s="42"/>
+    </row>
+    <row r="293" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP293" s="42"/>
+      <c r="AQ293" s="42"/>
+      <c r="AS293" s="42"/>
+    </row>
+    <row r="294" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP294" s="42"/>
+      <c r="AQ294" s="42"/>
+      <c r="AS294" s="42"/>
+    </row>
+    <row r="295" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP295" s="42"/>
+      <c r="AQ295" s="42"/>
+      <c r="AS295" s="42"/>
+    </row>
+    <row r="296" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP296" s="42"/>
+      <c r="AQ296" s="42"/>
+      <c r="AS296" s="42"/>
+    </row>
+    <row r="297" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP297" s="42"/>
+      <c r="AQ297" s="42"/>
+      <c r="AS297" s="42"/>
+    </row>
+    <row r="298" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP298" s="42"/>
+      <c r="AQ298" s="42"/>
+      <c r="AS298" s="42"/>
+    </row>
+    <row r="299" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP299" s="42"/>
+      <c r="AQ299" s="42"/>
+      <c r="AS299" s="42"/>
+    </row>
+    <row r="300" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP300" s="42"/>
+      <c r="AQ300" s="42"/>
+      <c r="AS300" s="42"/>
+    </row>
+    <row r="301" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP301" s="42"/>
+      <c r="AQ301" s="42"/>
+      <c r="AS301" s="42"/>
+    </row>
+    <row r="302" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP302" s="42"/>
+      <c r="AQ302" s="42"/>
+      <c r="AS302" s="42"/>
+    </row>
+    <row r="303" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP303" s="42"/>
+      <c r="AQ303" s="42"/>
+      <c r="AS303" s="42"/>
+    </row>
+    <row r="304" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP304" s="42"/>
+      <c r="AQ304" s="42"/>
+      <c r="AS304" s="42"/>
+    </row>
+    <row r="305" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP305" s="42"/>
+      <c r="AQ305" s="42"/>
+      <c r="AS305" s="42"/>
+    </row>
+    <row r="306" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP306" s="42"/>
+      <c r="AQ306" s="42"/>
+      <c r="AS306" s="42"/>
+    </row>
+    <row r="307" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP307" s="42"/>
+      <c r="AQ307" s="42"/>
+      <c r="AS307" s="42"/>
+    </row>
+    <row r="308" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP308" s="42"/>
+      <c r="AQ308" s="42"/>
+      <c r="AS308" s="42"/>
+    </row>
+    <row r="309" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP309" s="42"/>
+      <c r="AQ309" s="42"/>
+      <c r="AS309" s="42"/>
+    </row>
+    <row r="310" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP310" s="42"/>
+      <c r="AQ310" s="42"/>
+      <c r="AS310" s="42"/>
+    </row>
+    <row r="311" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP311" s="42"/>
+      <c r="AQ311" s="42"/>
+      <c r="AS311" s="42"/>
+    </row>
+    <row r="312" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP312" s="42"/>
+      <c r="AQ312" s="42"/>
+      <c r="AS312" s="42"/>
+    </row>
+    <row r="313" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP313" s="42"/>
+      <c r="AQ313" s="42"/>
+      <c r="AS313" s="42"/>
+    </row>
+    <row r="314" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP314" s="42"/>
+      <c r="AQ314" s="42"/>
+      <c r="AS314" s="42"/>
+    </row>
+    <row r="315" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP315" s="42"/>
+      <c r="AQ315" s="42"/>
+      <c r="AS315" s="42"/>
+    </row>
+    <row r="316" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP316" s="42"/>
+      <c r="AQ316" s="42"/>
+      <c r="AS316" s="42"/>
+    </row>
+    <row r="317" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP317" s="42"/>
+      <c r="AQ317" s="42"/>
+      <c r="AS317" s="42"/>
+    </row>
+    <row r="318" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP318" s="42"/>
+      <c r="AQ318" s="42"/>
+      <c r="AS318" s="42"/>
+    </row>
+    <row r="319" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP319" s="42"/>
+      <c r="AQ319" s="42"/>
+      <c r="AS319" s="42"/>
+    </row>
+    <row r="320" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP320" s="42"/>
+      <c r="AQ320" s="42"/>
+      <c r="AS320" s="42"/>
+    </row>
+    <row r="321" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP321" s="42"/>
+      <c r="AQ321" s="42"/>
+      <c r="AS321" s="42"/>
+    </row>
+    <row r="322" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP322" s="42"/>
+      <c r="AQ322" s="42"/>
+      <c r="AS322" s="42"/>
+    </row>
+    <row r="323" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP323" s="42"/>
+      <c r="AQ323" s="42"/>
+      <c r="AS323" s="42"/>
+    </row>
+    <row r="324" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP324" s="42"/>
+      <c r="AQ324" s="42"/>
+      <c r="AS324" s="42"/>
+    </row>
+    <row r="325" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP325" s="42"/>
+      <c r="AQ325" s="42"/>
+      <c r="AS325" s="42"/>
+    </row>
+    <row r="326" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP326" s="42"/>
+      <c r="AQ326" s="42"/>
+      <c r="AS326" s="42"/>
+    </row>
+    <row r="327" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP327" s="42"/>
+      <c r="AQ327" s="42"/>
+      <c r="AS327" s="42"/>
+    </row>
+    <row r="328" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP328" s="42"/>
+      <c r="AQ328" s="42"/>
+      <c r="AS328" s="42"/>
+    </row>
+    <row r="329" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP329" s="42"/>
+      <c r="AQ329" s="42"/>
+      <c r="AS329" s="42"/>
+    </row>
+    <row r="330" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP330" s="42"/>
+      <c r="AQ330" s="42"/>
+      <c r="AS330" s="42"/>
+    </row>
+    <row r="331" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP331" s="42"/>
+      <c r="AQ331" s="42"/>
+      <c r="AS331" s="42"/>
+    </row>
+    <row r="332" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP332" s="42"/>
+      <c r="AQ332" s="42"/>
+      <c r="AS332" s="42"/>
+    </row>
+    <row r="333" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP333" s="42"/>
+      <c r="AQ333" s="42"/>
+      <c r="AS333" s="42"/>
+    </row>
+    <row r="334" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP334" s="42"/>
+      <c r="AQ334" s="42"/>
+      <c r="AS334" s="42"/>
+    </row>
+    <row r="335" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP335" s="42"/>
+      <c r="AQ335" s="42"/>
+      <c r="AS335" s="42"/>
+    </row>
+    <row r="336" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP336" s="42"/>
+      <c r="AQ336" s="42"/>
+      <c r="AS336" s="42"/>
+    </row>
+    <row r="337" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP337" s="42"/>
+      <c r="AQ337" s="42"/>
+      <c r="AS337" s="42"/>
+    </row>
+    <row r="338" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP338" s="42"/>
+      <c r="AQ338" s="42"/>
+      <c r="AS338" s="42"/>
+    </row>
+    <row r="339" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP339" s="42"/>
+      <c r="AQ339" s="42"/>
+      <c r="AS339" s="42"/>
+    </row>
+    <row r="340" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP340" s="42"/>
+      <c r="AQ340" s="42"/>
+      <c r="AS340" s="42"/>
+    </row>
+    <row r="341" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP341" s="42"/>
+      <c r="AQ341" s="42"/>
+      <c r="AS341" s="42"/>
+    </row>
+    <row r="342" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP342" s="42"/>
+      <c r="AQ342" s="42"/>
+      <c r="AS342" s="42"/>
+    </row>
+    <row r="343" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP343" s="42"/>
+      <c r="AQ343" s="42"/>
+      <c r="AS343" s="42"/>
+    </row>
+    <row r="344" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP344" s="42"/>
+      <c r="AQ344" s="42"/>
+      <c r="AS344" s="42"/>
+    </row>
+    <row r="345" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP345" s="42"/>
+      <c r="AQ345" s="42"/>
+      <c r="AS345" s="42"/>
+    </row>
+    <row r="346" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP346" s="42"/>
+      <c r="AQ346" s="42"/>
+      <c r="AS346" s="42"/>
+    </row>
+    <row r="347" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP347" s="42"/>
+      <c r="AQ347" s="42"/>
+      <c r="AS347" s="42"/>
+    </row>
+    <row r="348" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP348" s="42"/>
+      <c r="AQ348" s="42"/>
+      <c r="AS348" s="42"/>
+    </row>
+    <row r="349" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP349" s="42"/>
+      <c r="AQ349" s="42"/>
+      <c r="AS349" s="42"/>
+    </row>
+    <row r="350" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP350" s="42"/>
+      <c r="AQ350" s="42"/>
+      <c r="AS350" s="42"/>
+    </row>
+    <row r="351" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP351" s="42"/>
+      <c r="AQ351" s="42"/>
+      <c r="AS351" s="42"/>
+    </row>
+    <row r="352" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP352" s="42"/>
+      <c r="AQ352" s="42"/>
+      <c r="AS352" s="42"/>
+    </row>
+    <row r="353" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP353" s="42"/>
+      <c r="AQ353" s="42"/>
+      <c r="AS353" s="42"/>
+    </row>
+    <row r="354" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP354" s="42"/>
+      <c r="AQ354" s="42"/>
+      <c r="AS354" s="42"/>
+    </row>
+    <row r="355" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP355" s="42"/>
+      <c r="AQ355" s="42"/>
+      <c r="AS355" s="42"/>
+    </row>
+    <row r="356" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP356" s="42"/>
+      <c r="AQ356" s="42"/>
+      <c r="AS356" s="42"/>
+    </row>
+    <row r="357" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP357" s="42"/>
+      <c r="AQ357" s="42"/>
+      <c r="AS357" s="42"/>
+    </row>
+    <row r="358" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP358" s="42"/>
+      <c r="AQ358" s="42"/>
+      <c r="AS358" s="42"/>
+    </row>
+    <row r="359" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP359" s="42"/>
+      <c r="AQ359" s="42"/>
+      <c r="AS359" s="42"/>
+    </row>
+    <row r="360" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP360" s="42"/>
+      <c r="AQ360" s="42"/>
+      <c r="AS360" s="42"/>
+    </row>
+    <row r="361" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP361" s="42"/>
+      <c r="AQ361" s="42"/>
+      <c r="AS361" s="42"/>
+    </row>
+    <row r="362" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP362" s="42"/>
+      <c r="AQ362" s="42"/>
+      <c r="AS362" s="42"/>
+    </row>
+    <row r="363" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP363" s="42"/>
+      <c r="AQ363" s="42"/>
+      <c r="AS363" s="42"/>
+    </row>
+    <row r="364" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP364" s="42"/>
+      <c r="AQ364" s="42"/>
+      <c r="AS364" s="42"/>
+    </row>
+    <row r="365" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP365" s="42"/>
+      <c r="AQ365" s="42"/>
+      <c r="AS365" s="42"/>
+    </row>
+    <row r="366" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP366" s="42"/>
+      <c r="AQ366" s="42"/>
+      <c r="AS366" s="42"/>
+    </row>
+    <row r="367" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP367" s="42"/>
+      <c r="AQ367" s="42"/>
+      <c r="AS367" s="42"/>
+    </row>
+    <row r="368" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP368" s="42"/>
+      <c r="AQ368" s="42"/>
+      <c r="AS368" s="42"/>
+    </row>
+    <row r="369" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP369" s="42"/>
+      <c r="AQ369" s="42"/>
+      <c r="AS369" s="42"/>
+    </row>
+    <row r="370" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP370" s="42"/>
+      <c r="AQ370" s="42"/>
+      <c r="AS370" s="42"/>
+    </row>
+    <row r="371" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP371" s="42"/>
+      <c r="AQ371" s="42"/>
+      <c r="AS371" s="42"/>
+    </row>
+    <row r="372" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP372" s="42"/>
+      <c r="AQ372" s="42"/>
+      <c r="AS372" s="42"/>
+    </row>
+    <row r="373" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP373" s="42"/>
+      <c r="AQ373" s="42"/>
+      <c r="AS373" s="42"/>
+    </row>
+    <row r="374" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP374" s="42"/>
+      <c r="AQ374" s="42"/>
+      <c r="AS374" s="42"/>
+    </row>
+    <row r="375" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP375" s="42"/>
+      <c r="AQ375" s="42"/>
+      <c r="AS375" s="42"/>
+    </row>
+    <row r="376" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP376" s="42"/>
+      <c r="AQ376" s="42"/>
+      <c r="AS376" s="42"/>
+    </row>
+    <row r="377" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP377" s="42"/>
+      <c r="AQ377" s="42"/>
+      <c r="AS377" s="42"/>
+    </row>
+    <row r="378" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP378" s="42"/>
+      <c r="AQ378" s="42"/>
+      <c r="AS378" s="42"/>
+    </row>
+    <row r="379" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP379" s="42"/>
+      <c r="AQ379" s="42"/>
+      <c r="AS379" s="42"/>
+    </row>
+    <row r="380" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP380" s="42"/>
+      <c r="AQ380" s="42"/>
+      <c r="AS380" s="42"/>
+    </row>
+    <row r="381" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP381" s="42"/>
+      <c r="AQ381" s="42"/>
+      <c r="AS381" s="42"/>
+    </row>
+    <row r="382" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP382" s="42"/>
+      <c r="AQ382" s="42"/>
+      <c r="AS382" s="42"/>
+    </row>
+    <row r="383" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP383" s="42"/>
+      <c r="AQ383" s="42"/>
+      <c r="AS383" s="42"/>
+    </row>
+    <row r="384" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP384" s="42"/>
+      <c r="AQ384" s="42"/>
+      <c r="AS384" s="42"/>
+    </row>
+    <row r="385" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP385" s="42"/>
+      <c r="AQ385" s="42"/>
+      <c r="AS385" s="42"/>
+    </row>
+    <row r="386" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP386" s="42"/>
+      <c r="AQ386" s="42"/>
+      <c r="AS386" s="42"/>
+    </row>
+    <row r="387" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP387" s="42"/>
+      <c r="AQ387" s="42"/>
+      <c r="AS387" s="42"/>
+    </row>
+    <row r="388" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP388" s="42"/>
+      <c r="AQ388" s="42"/>
+      <c r="AS388" s="42"/>
+    </row>
+    <row r="389" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP389" s="42"/>
+      <c r="AQ389" s="42"/>
+      <c r="AS389" s="42"/>
+    </row>
+    <row r="390" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP390" s="42"/>
+      <c r="AQ390" s="42"/>
+      <c r="AS390" s="42"/>
+    </row>
+    <row r="391" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP391" s="42"/>
+      <c r="AQ391" s="42"/>
+      <c r="AS391" s="42"/>
+    </row>
+    <row r="392" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP392" s="42"/>
+      <c r="AQ392" s="42"/>
+      <c r="AS392" s="42"/>
+    </row>
+    <row r="393" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP393" s="42"/>
+      <c r="AQ393" s="42"/>
+      <c r="AS393" s="42"/>
+    </row>
+    <row r="394" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP394" s="42"/>
+      <c r="AQ394" s="42"/>
+      <c r="AS394" s="42"/>
+    </row>
+    <row r="395" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP395" s="42"/>
+      <c r="AQ395" s="42"/>
+      <c r="AS395" s="42"/>
+    </row>
+    <row r="396" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP396" s="42"/>
+      <c r="AQ396" s="42"/>
+      <c r="AS396" s="42"/>
+    </row>
+    <row r="397" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP397" s="42"/>
+      <c r="AQ397" s="42"/>
+      <c r="AS397" s="42"/>
+    </row>
+    <row r="398" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP398" s="42"/>
+      <c r="AQ398" s="42"/>
+      <c r="AS398" s="42"/>
+    </row>
+    <row r="399" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP399" s="42"/>
+      <c r="AQ399" s="42"/>
+      <c r="AS399" s="42"/>
+    </row>
+    <row r="400" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP400" s="42"/>
+      <c r="AQ400" s="42"/>
+      <c r="AS400" s="42"/>
+    </row>
+    <row r="401" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP401" s="42"/>
+      <c r="AQ401" s="42"/>
+      <c r="AS401" s="42"/>
+    </row>
+    <row r="402" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP402" s="42"/>
+      <c r="AQ402" s="42"/>
+      <c r="AS402" s="42"/>
+    </row>
+    <row r="403" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP403" s="42"/>
+      <c r="AQ403" s="42"/>
+      <c r="AS403" s="42"/>
+    </row>
+    <row r="404" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP404" s="42"/>
+      <c r="AQ404" s="42"/>
+      <c r="AS404" s="42"/>
+    </row>
+    <row r="405" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP405" s="42"/>
+      <c r="AQ405" s="42"/>
+      <c r="AS405" s="42"/>
+    </row>
+    <row r="406" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP406" s="42"/>
+      <c r="AQ406" s="42"/>
+      <c r="AS406" s="42"/>
+    </row>
+    <row r="407" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP407" s="42"/>
+      <c r="AQ407" s="42"/>
+      <c r="AS407" s="42"/>
+    </row>
+    <row r="408" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP408" s="42"/>
+      <c r="AQ408" s="42"/>
+      <c r="AS408" s="42"/>
+    </row>
+    <row r="409" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP409" s="42"/>
+      <c r="AQ409" s="42"/>
+      <c r="AS409" s="42"/>
+    </row>
+    <row r="410" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP410" s="42"/>
+      <c r="AQ410" s="42"/>
+      <c r="AS410" s="42"/>
+    </row>
+    <row r="411" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP411" s="42"/>
+      <c r="AQ411" s="42"/>
+      <c r="AS411" s="42"/>
+    </row>
+    <row r="412" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP412" s="42"/>
+      <c r="AQ412" s="42"/>
+      <c r="AS412" s="42"/>
+    </row>
+    <row r="413" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP413" s="42"/>
+      <c r="AQ413" s="42"/>
+      <c r="AS413" s="42"/>
+    </row>
+    <row r="414" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP414" s="42"/>
+      <c r="AQ414" s="42"/>
+      <c r="AS414" s="42"/>
+    </row>
+    <row r="415" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP415" s="42"/>
+      <c r="AQ415" s="42"/>
+      <c r="AS415" s="42"/>
+    </row>
+    <row r="416" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP416" s="42"/>
+      <c r="AQ416" s="42"/>
+      <c r="AS416" s="42"/>
+    </row>
+    <row r="417" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP417" s="42"/>
+      <c r="AQ417" s="42"/>
+      <c r="AS417" s="42"/>
+    </row>
+    <row r="418" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP418" s="42"/>
+      <c r="AQ418" s="42"/>
+      <c r="AS418" s="42"/>
+    </row>
+    <row r="419" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP419" s="42"/>
+      <c r="AQ419" s="42"/>
+      <c r="AS419" s="42"/>
+    </row>
+    <row r="420" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP420" s="42"/>
+      <c r="AQ420" s="42"/>
+      <c r="AS420" s="42"/>
+    </row>
+    <row r="421" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP421" s="42"/>
+      <c r="AQ421" s="42"/>
+      <c r="AS421" s="42"/>
+    </row>
+    <row r="422" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP422" s="42"/>
+      <c r="AQ422" s="42"/>
+      <c r="AS422" s="42"/>
+    </row>
+    <row r="423" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP423" s="42"/>
+      <c r="AQ423" s="42"/>
+      <c r="AS423" s="42"/>
+    </row>
+    <row r="424" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP424" s="42"/>
+      <c r="AQ424" s="42"/>
+      <c r="AS424" s="42"/>
+    </row>
+    <row r="425" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP425" s="42"/>
+      <c r="AQ425" s="42"/>
+      <c r="AS425" s="42"/>
+    </row>
+    <row r="426" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP426" s="42"/>
+      <c r="AQ426" s="42"/>
+      <c r="AS426" s="42"/>
+    </row>
+    <row r="427" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP427" s="42"/>
+      <c r="AQ427" s="42"/>
+      <c r="AS427" s="42"/>
+    </row>
+    <row r="428" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP428" s="42"/>
+      <c r="AQ428" s="42"/>
+      <c r="AS428" s="42"/>
+    </row>
+    <row r="429" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP429" s="42"/>
+      <c r="AQ429" s="42"/>
+      <c r="AS429" s="42"/>
+    </row>
+    <row r="430" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP430" s="42"/>
+      <c r="AQ430" s="42"/>
+      <c r="AS430" s="42"/>
+    </row>
+    <row r="431" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP431" s="42"/>
+      <c r="AQ431" s="42"/>
+      <c r="AS431" s="42"/>
+    </row>
+    <row r="432" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP432" s="42"/>
+      <c r="AQ432" s="42"/>
+      <c r="AS432" s="42"/>
+    </row>
+    <row r="433" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP433" s="42"/>
+      <c r="AQ433" s="42"/>
+      <c r="AS433" s="42"/>
+    </row>
+    <row r="434" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP434" s="42"/>
+      <c r="AQ434" s="42"/>
+      <c r="AS434" s="42"/>
+    </row>
+    <row r="435" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP435" s="42"/>
+      <c r="AQ435" s="42"/>
+      <c r="AS435" s="42"/>
+    </row>
+    <row r="436" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP436" s="42"/>
+      <c r="AQ436" s="42"/>
+      <c r="AS436" s="42"/>
+    </row>
+    <row r="437" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP437" s="42"/>
+      <c r="AQ437" s="42"/>
+      <c r="AS437" s="42"/>
+    </row>
+    <row r="438" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP438" s="42"/>
+      <c r="AQ438" s="42"/>
+      <c r="AS438" s="42"/>
+    </row>
+    <row r="439" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP439" s="42"/>
+      <c r="AQ439" s="42"/>
+      <c r="AS439" s="42"/>
+    </row>
+    <row r="440" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP440" s="42"/>
+      <c r="AQ440" s="42"/>
+      <c r="AS440" s="42"/>
+    </row>
+    <row r="441" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP441" s="42"/>
+      <c r="AQ441" s="42"/>
+      <c r="AS441" s="42"/>
+    </row>
+    <row r="442" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP442" s="42"/>
+      <c r="AQ442" s="42"/>
+      <c r="AS442" s="42"/>
+    </row>
+    <row r="443" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP443" s="42"/>
+      <c r="AQ443" s="42"/>
+      <c r="AS443" s="42"/>
+    </row>
+    <row r="444" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP444" s="42"/>
+      <c r="AQ444" s="42"/>
+      <c r="AS444" s="42"/>
+    </row>
+    <row r="445" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP445" s="42"/>
+      <c r="AQ445" s="42"/>
+      <c r="AS445" s="42"/>
+    </row>
+    <row r="446" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP446" s="42"/>
+      <c r="AQ446" s="42"/>
+      <c r="AS446" s="42"/>
+    </row>
+    <row r="447" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP447" s="42"/>
+      <c r="AQ447" s="42"/>
+      <c r="AS447" s="42"/>
+    </row>
+    <row r="448" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP448" s="42"/>
+      <c r="AQ448" s="42"/>
+      <c r="AS448" s="42"/>
+    </row>
+    <row r="449" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP449" s="42"/>
+      <c r="AQ449" s="42"/>
+      <c r="AS449" s="42"/>
+    </row>
+    <row r="450" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP450" s="42"/>
+      <c r="AQ450" s="42"/>
+      <c r="AS450" s="42"/>
+    </row>
+    <row r="451" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP451" s="42"/>
+      <c r="AQ451" s="42"/>
+      <c r="AS451" s="42"/>
+    </row>
+    <row r="452" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP452" s="42"/>
+      <c r="AQ452" s="42"/>
+      <c r="AS452" s="42"/>
+    </row>
+    <row r="453" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP453" s="42"/>
+      <c r="AQ453" s="42"/>
+      <c r="AS453" s="42"/>
+    </row>
+    <row r="454" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP454" s="42"/>
+      <c r="AQ454" s="42"/>
+      <c r="AS454" s="42"/>
+    </row>
+    <row r="455" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP455" s="42"/>
+      <c r="AQ455" s="42"/>
+      <c r="AS455" s="42"/>
+    </row>
+    <row r="456" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP456" s="42"/>
+      <c r="AQ456" s="42"/>
+      <c r="AS456" s="42"/>
+    </row>
+    <row r="457" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP457" s="42"/>
+      <c r="AQ457" s="42"/>
+      <c r="AS457" s="42"/>
+    </row>
+    <row r="458" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP458" s="42"/>
+      <c r="AQ458" s="42"/>
+      <c r="AS458" s="42"/>
+    </row>
+    <row r="459" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP459" s="42"/>
+      <c r="AQ459" s="42"/>
+      <c r="AS459" s="42"/>
+    </row>
+    <row r="460" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP460" s="42"/>
+      <c r="AQ460" s="42"/>
+      <c r="AS460" s="42"/>
+    </row>
+    <row r="461" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP461" s="42"/>
+      <c r="AQ461" s="42"/>
+      <c r="AS461" s="42"/>
+    </row>
+    <row r="462" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP462" s="42"/>
+      <c r="AQ462" s="42"/>
+      <c r="AS462" s="42"/>
+    </row>
+    <row r="463" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP463" s="42"/>
+      <c r="AQ463" s="42"/>
+      <c r="AS463" s="42"/>
+    </row>
+    <row r="464" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP464" s="42"/>
+      <c r="AQ464" s="42"/>
+      <c r="AS464" s="42"/>
+    </row>
+    <row r="465" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP465" s="42"/>
+      <c r="AQ465" s="42"/>
+      <c r="AS465" s="42"/>
+    </row>
+    <row r="466" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP466" s="42"/>
+      <c r="AQ466" s="42"/>
+      <c r="AS466" s="42"/>
+    </row>
+    <row r="467" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP467" s="42"/>
+      <c r="AQ467" s="42"/>
+      <c r="AS467" s="42"/>
+    </row>
+    <row r="468" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP468" s="42"/>
+      <c r="AQ468" s="42"/>
+      <c r="AS468" s="42"/>
+    </row>
+    <row r="469" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP469" s="42"/>
+      <c r="AQ469" s="42"/>
+      <c r="AS469" s="42"/>
+    </row>
+    <row r="470" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP470" s="42"/>
+      <c r="AQ470" s="42"/>
+      <c r="AS470" s="42"/>
+    </row>
+    <row r="471" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP471" s="42"/>
+      <c r="AQ471" s="42"/>
+      <c r="AS471" s="42"/>
+    </row>
+    <row r="472" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP472" s="42"/>
+      <c r="AQ472" s="42"/>
+      <c r="AS472" s="42"/>
+    </row>
+    <row r="473" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP473" s="42"/>
+      <c r="AQ473" s="42"/>
+      <c r="AS473" s="42"/>
+    </row>
+    <row r="474" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP474" s="42"/>
+      <c r="AQ474" s="42"/>
+      <c r="AS474" s="42"/>
+    </row>
+    <row r="475" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP475" s="42"/>
+      <c r="AQ475" s="42"/>
+      <c r="AS475" s="42"/>
+    </row>
+    <row r="476" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP476" s="42"/>
+      <c r="AQ476" s="42"/>
+      <c r="AS476" s="42"/>
+    </row>
+    <row r="477" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP477" s="42"/>
+      <c r="AQ477" s="42"/>
+      <c r="AS477" s="42"/>
+    </row>
+    <row r="478" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP478" s="42"/>
+      <c r="AQ478" s="42"/>
+      <c r="AS478" s="42"/>
+    </row>
+    <row r="479" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP479" s="42"/>
+      <c r="AQ479" s="42"/>
+      <c r="AS479" s="42"/>
+    </row>
+    <row r="480" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP480" s="42"/>
+      <c r="AQ480" s="42"/>
+      <c r="AS480" s="42"/>
+    </row>
+    <row r="481" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP481" s="42"/>
+      <c r="AQ481" s="42"/>
+      <c r="AS481" s="42"/>
+    </row>
+    <row r="482" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP482" s="42"/>
+      <c r="AQ482" s="42"/>
+      <c r="AS482" s="42"/>
+    </row>
+    <row r="483" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP483" s="42"/>
+      <c r="AQ483" s="42"/>
+      <c r="AS483" s="42"/>
+    </row>
+    <row r="484" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP484" s="42"/>
+      <c r="AQ484" s="42"/>
+      <c r="AS484" s="42"/>
+    </row>
+    <row r="485" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP485" s="42"/>
+      <c r="AQ485" s="42"/>
+      <c r="AS485" s="42"/>
+    </row>
+    <row r="486" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP486" s="42"/>
+      <c r="AQ486" s="42"/>
+      <c r="AS486" s="42"/>
+    </row>
+    <row r="487" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP487" s="42"/>
+      <c r="AQ487" s="42"/>
+      <c r="AS487" s="42"/>
+    </row>
+    <row r="488" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP488" s="42"/>
+      <c r="AQ488" s="42"/>
+      <c r="AS488" s="42"/>
+    </row>
+    <row r="489" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP489" s="42"/>
+      <c r="AQ489" s="42"/>
+      <c r="AS489" s="42"/>
+    </row>
+    <row r="490" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP490" s="42"/>
+      <c r="AQ490" s="42"/>
+      <c r="AS490" s="42"/>
+    </row>
+    <row r="491" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP491" s="42"/>
+      <c r="AQ491" s="42"/>
+      <c r="AS491" s="42"/>
+    </row>
+    <row r="492" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP492" s="42"/>
+      <c r="AQ492" s="42"/>
+      <c r="AS492" s="42"/>
+    </row>
+    <row r="493" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP493" s="42"/>
+      <c r="AQ493" s="42"/>
+      <c r="AS493" s="42"/>
+    </row>
+    <row r="494" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP494" s="42"/>
+      <c r="AQ494" s="42"/>
+      <c r="AS494" s="42"/>
+    </row>
+    <row r="495" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP495" s="42"/>
+      <c r="AQ495" s="42"/>
+      <c r="AS495" s="42"/>
+    </row>
+    <row r="496" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP496" s="42"/>
+      <c r="AQ496" s="42"/>
+      <c r="AS496" s="42"/>
+    </row>
+    <row r="497" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP497" s="42"/>
+      <c r="AQ497" s="42"/>
+      <c r="AS497" s="42"/>
+    </row>
+    <row r="498" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP498" s="42"/>
+      <c r="AQ498" s="42"/>
+      <c r="AS498" s="42"/>
+    </row>
+    <row r="499" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP499" s="42"/>
+      <c r="AQ499" s="42"/>
+      <c r="AS499" s="42"/>
+    </row>
+    <row r="500" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP500" s="42"/>
+      <c r="AQ500" s="42"/>
+      <c r="AS500" s="42"/>
+    </row>
+    <row r="501" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP501" s="42"/>
+      <c r="AQ501" s="42"/>
+      <c r="AS501" s="42"/>
+    </row>
+    <row r="502" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP502" s="42"/>
+      <c r="AQ502" s="42"/>
+      <c r="AS502" s="42"/>
+    </row>
+    <row r="503" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP503" s="42"/>
+      <c r="AQ503" s="42"/>
+      <c r="AS503" s="42"/>
+    </row>
+    <row r="504" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP504" s="42"/>
+      <c r="AQ504" s="42"/>
+      <c r="AS504" s="42"/>
+    </row>
+    <row r="505" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP505" s="42"/>
+      <c r="AQ505" s="42"/>
+      <c r="AS505" s="42"/>
+    </row>
+    <row r="506" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP506" s="42"/>
+      <c r="AQ506" s="42"/>
+      <c r="AS506" s="42"/>
+    </row>
+    <row r="507" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP507" s="42"/>
+      <c r="AQ507" s="42"/>
+      <c r="AS507" s="42"/>
+    </row>
+    <row r="508" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP508" s="42"/>
+      <c r="AQ508" s="42"/>
+      <c r="AS508" s="42"/>
+    </row>
+    <row r="509" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP509" s="42"/>
+      <c r="AQ509" s="42"/>
+      <c r="AS509" s="42"/>
+    </row>
+    <row r="510" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP510" s="42"/>
+      <c r="AQ510" s="42"/>
+      <c r="AS510" s="42"/>
+    </row>
+    <row r="511" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP511" s="42"/>
+      <c r="AQ511" s="42"/>
+      <c r="AS511" s="42"/>
+    </row>
+    <row r="512" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP512" s="42"/>
+      <c r="AQ512" s="42"/>
+      <c r="AS512" s="42"/>
+    </row>
+    <row r="513" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP513" s="42"/>
+      <c r="AQ513" s="42"/>
+      <c r="AS513" s="42"/>
+    </row>
+    <row r="514" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP514" s="42"/>
+      <c r="AQ514" s="42"/>
+      <c r="AS514" s="42"/>
+    </row>
+    <row r="515" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP515" s="42"/>
+      <c r="AQ515" s="42"/>
+      <c r="AS515" s="42"/>
+    </row>
+    <row r="516" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP516" s="42"/>
+      <c r="AQ516" s="42"/>
+      <c r="AS516" s="42"/>
+    </row>
+    <row r="517" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP517" s="42"/>
+      <c r="AQ517" s="42"/>
+      <c r="AS517" s="42"/>
+    </row>
+    <row r="518" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP518" s="42"/>
+      <c r="AQ518" s="42"/>
+      <c r="AS518" s="42"/>
+    </row>
+    <row r="519" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP519" s="42"/>
+      <c r="AQ519" s="42"/>
+      <c r="AS519" s="42"/>
+    </row>
+    <row r="520" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP520" s="42"/>
+      <c r="AQ520" s="42"/>
+      <c r="AS520" s="42"/>
+    </row>
+    <row r="521" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP521" s="42"/>
+      <c r="AQ521" s="42"/>
+      <c r="AS521" s="42"/>
+    </row>
+    <row r="522" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP522" s="42"/>
+      <c r="AQ522" s="42"/>
+      <c r="AS522" s="42"/>
+    </row>
+    <row r="523" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP523" s="42"/>
+      <c r="AQ523" s="42"/>
+      <c r="AS523" s="42"/>
+    </row>
+    <row r="524" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP524" s="42"/>
+      <c r="AQ524" s="42"/>
+      <c r="AS524" s="42"/>
+    </row>
+    <row r="525" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP525" s="42"/>
+      <c r="AQ525" s="42"/>
+      <c r="AS525" s="42"/>
+    </row>
+    <row r="526" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP526" s="42"/>
+      <c r="AQ526" s="42"/>
+      <c r="AS526" s="42"/>
+    </row>
+    <row r="527" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP527" s="42"/>
+      <c r="AQ527" s="42"/>
+      <c r="AS527" s="42"/>
+    </row>
+    <row r="528" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP528" s="42"/>
+      <c r="AQ528" s="42"/>
+      <c r="AS528" s="42"/>
+    </row>
+    <row r="529" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP529" s="42"/>
+      <c r="AQ529" s="42"/>
+      <c r="AS529" s="42"/>
+    </row>
+    <row r="530" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP530" s="42"/>
+      <c r="AQ530" s="42"/>
+      <c r="AS530" s="42"/>
+    </row>
+    <row r="531" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP531" s="42"/>
+      <c r="AQ531" s="42"/>
+      <c r="AS531" s="42"/>
+    </row>
+    <row r="532" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP532" s="42"/>
+      <c r="AQ532" s="42"/>
+      <c r="AS532" s="42"/>
+    </row>
+    <row r="533" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP533" s="42"/>
+      <c r="AQ533" s="42"/>
+      <c r="AS533" s="42"/>
+    </row>
+    <row r="534" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP534" s="42"/>
+      <c r="AQ534" s="42"/>
+      <c r="AS534" s="42"/>
+    </row>
+    <row r="535" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP535" s="42"/>
+      <c r="AQ535" s="42"/>
+      <c r="AS535" s="42"/>
+    </row>
+    <row r="536" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP536" s="42"/>
+      <c r="AQ536" s="42"/>
+      <c r="AS536" s="42"/>
+    </row>
+    <row r="537" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP537" s="42"/>
+      <c r="AQ537" s="42"/>
+      <c r="AS537" s="42"/>
+    </row>
+    <row r="538" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP538" s="42"/>
+      <c r="AQ538" s="42"/>
+      <c r="AS538" s="42"/>
+    </row>
+    <row r="539" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP539" s="42"/>
+      <c r="AQ539" s="42"/>
+      <c r="AS539" s="42"/>
+    </row>
+    <row r="540" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP540" s="42"/>
+      <c r="AQ540" s="42"/>
+      <c r="AS540" s="42"/>
+    </row>
+    <row r="541" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP541" s="42"/>
+      <c r="AQ541" s="42"/>
+      <c r="AS541" s="42"/>
+    </row>
+    <row r="542" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP542" s="42"/>
+      <c r="AQ542" s="42"/>
+      <c r="AS542" s="42"/>
+    </row>
+    <row r="543" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP543" s="42"/>
+      <c r="AQ543" s="42"/>
+      <c r="AS543" s="42"/>
+    </row>
+    <row r="544" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP544" s="42"/>
+      <c r="AQ544" s="42"/>
+      <c r="AS544" s="42"/>
+    </row>
+    <row r="545" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP545" s="42"/>
+      <c r="AQ545" s="42"/>
+      <c r="AS545" s="42"/>
+    </row>
+    <row r="546" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP546" s="42"/>
+      <c r="AQ546" s="42"/>
+      <c r="AS546" s="42"/>
+    </row>
+    <row r="547" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP547" s="42"/>
+      <c r="AQ547" s="42"/>
+      <c r="AS547" s="42"/>
+    </row>
+    <row r="548" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP548" s="42"/>
+      <c r="AQ548" s="42"/>
+      <c r="AS548" s="42"/>
+    </row>
+    <row r="549" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP549" s="42"/>
+      <c r="AQ549" s="42"/>
+      <c r="AS549" s="42"/>
+    </row>
+    <row r="550" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP550" s="42"/>
+      <c r="AQ550" s="42"/>
+      <c r="AS550" s="42"/>
+    </row>
+    <row r="551" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP551" s="42"/>
+      <c r="AQ551" s="42"/>
+      <c r="AS551" s="42"/>
+    </row>
+    <row r="552" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP552" s="42"/>
+      <c r="AQ552" s="42"/>
+      <c r="AS552" s="42"/>
+    </row>
+    <row r="553" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP553" s="42"/>
+      <c r="AQ553" s="42"/>
+      <c r="AS553" s="42"/>
+    </row>
+    <row r="554" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP554" s="42"/>
+      <c r="AQ554" s="42"/>
+      <c r="AS554" s="42"/>
+    </row>
+    <row r="555" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP555" s="42"/>
+      <c r="AQ555" s="42"/>
+      <c r="AS555" s="42"/>
+    </row>
+    <row r="556" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP556" s="42"/>
+      <c r="AQ556" s="42"/>
+      <c r="AS556" s="42"/>
+    </row>
+    <row r="557" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP557" s="42"/>
+      <c r="AQ557" s="42"/>
+      <c r="AS557" s="42"/>
+    </row>
+    <row r="558" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP558" s="42"/>
+      <c r="AQ558" s="42"/>
+      <c r="AS558" s="42"/>
+    </row>
+    <row r="559" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP559" s="42"/>
+      <c r="AQ559" s="42"/>
+      <c r="AS559" s="42"/>
+    </row>
+    <row r="560" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP560" s="42"/>
+      <c r="AQ560" s="42"/>
+      <c r="AS560" s="42"/>
+    </row>
+    <row r="561" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP561" s="42"/>
+      <c r="AQ561" s="42"/>
+      <c r="AS561" s="42"/>
+    </row>
+    <row r="562" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP562" s="42"/>
+      <c r="AQ562" s="42"/>
+      <c r="AS562" s="42"/>
+    </row>
+    <row r="563" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP563" s="42"/>
+      <c r="AQ563" s="42"/>
+      <c r="AS563" s="42"/>
+    </row>
+    <row r="564" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP564" s="42"/>
+      <c r="AQ564" s="42"/>
+      <c r="AS564" s="42"/>
+    </row>
+    <row r="565" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP565" s="42"/>
+      <c r="AQ565" s="42"/>
+      <c r="AS565" s="42"/>
+    </row>
+    <row r="566" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP566" s="42"/>
+      <c r="AQ566" s="42"/>
+      <c r="AS566" s="42"/>
+    </row>
+    <row r="567" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP567" s="42"/>
+      <c r="AQ567" s="42"/>
+      <c r="AS567" s="42"/>
+    </row>
+    <row r="568" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP568" s="42"/>
+      <c r="AQ568" s="42"/>
+      <c r="AS568" s="42"/>
+    </row>
+    <row r="569" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP569" s="42"/>
+      <c r="AQ569" s="42"/>
+      <c r="AS569" s="42"/>
+    </row>
+    <row r="570" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP570" s="42"/>
+      <c r="AQ570" s="42"/>
+      <c r="AS570" s="42"/>
+    </row>
+    <row r="571" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP571" s="42"/>
+      <c r="AQ571" s="42"/>
+      <c r="AS571" s="42"/>
+    </row>
+    <row r="572" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP572" s="42"/>
+      <c r="AQ572" s="42"/>
+      <c r="AS572" s="42"/>
+    </row>
+    <row r="573" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP573" s="42"/>
+      <c r="AQ573" s="42"/>
+      <c r="AS573" s="42"/>
+    </row>
+    <row r="574" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP574" s="42"/>
+      <c r="AQ574" s="42"/>
+      <c r="AS574" s="42"/>
+    </row>
+    <row r="575" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP575" s="42"/>
+      <c r="AQ575" s="42"/>
+      <c r="AS575" s="42"/>
+    </row>
+    <row r="576" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP576" s="42"/>
+      <c r="AQ576" s="42"/>
+      <c r="AS576" s="42"/>
+    </row>
+    <row r="577" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP577" s="42"/>
+      <c r="AQ577" s="42"/>
+      <c r="AS577" s="42"/>
+    </row>
+    <row r="578" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP578" s="42"/>
+      <c r="AQ578" s="42"/>
+      <c r="AS578" s="42"/>
+    </row>
+    <row r="579" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP579" s="42"/>
+      <c r="AQ579" s="42"/>
+      <c r="AS579" s="42"/>
+    </row>
+    <row r="580" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP580" s="42"/>
+      <c r="AQ580" s="42"/>
+      <c r="AS580" s="42"/>
+    </row>
+    <row r="581" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP581" s="42"/>
+      <c r="AQ581" s="42"/>
+      <c r="AS581" s="42"/>
+    </row>
+    <row r="582" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP582" s="42"/>
+      <c r="AQ582" s="42"/>
+      <c r="AS582" s="42"/>
+    </row>
+    <row r="583" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP583" s="42"/>
+      <c r="AQ583" s="42"/>
+      <c r="AS583" s="42"/>
+    </row>
+    <row r="584" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP584" s="42"/>
+      <c r="AQ584" s="42"/>
+      <c r="AS584" s="42"/>
+    </row>
+    <row r="585" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP585" s="42"/>
+      <c r="AQ585" s="42"/>
+      <c r="AS585" s="42"/>
+    </row>
+    <row r="586" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP586" s="42"/>
+      <c r="AQ586" s="42"/>
+      <c r="AS586" s="42"/>
+    </row>
+    <row r="587" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP587" s="42"/>
+      <c r="AQ587" s="42"/>
+      <c r="AS587" s="42"/>
+    </row>
+    <row r="588" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP588" s="42"/>
+      <c r="AQ588" s="42"/>
+      <c r="AS588" s="42"/>
+    </row>
+    <row r="589" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP589" s="42"/>
+      <c r="AQ589" s="42"/>
+      <c r="AS589" s="42"/>
+    </row>
+    <row r="590" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP590" s="42"/>
+      <c r="AQ590" s="42"/>
+      <c r="AS590" s="42"/>
+    </row>
+    <row r="591" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP591" s="42"/>
+      <c r="AQ591" s="42"/>
+      <c r="AS591" s="42"/>
+    </row>
+    <row r="592" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP592" s="42"/>
+      <c r="AQ592" s="42"/>
+      <c r="AS592" s="42"/>
+    </row>
+    <row r="593" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP593" s="42"/>
+      <c r="AQ593" s="42"/>
+      <c r="AS593" s="42"/>
+    </row>
+    <row r="594" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP594" s="42"/>
+      <c r="AQ594" s="42"/>
+      <c r="AS594" s="42"/>
+    </row>
+    <row r="595" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP595" s="42"/>
+      <c r="AQ595" s="42"/>
+      <c r="AS595" s="42"/>
+    </row>
+    <row r="596" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP596" s="42"/>
+      <c r="AQ596" s="42"/>
+      <c r="AS596" s="42"/>
+    </row>
+    <row r="597" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP597" s="42"/>
+      <c r="AQ597" s="42"/>
+      <c r="AS597" s="42"/>
+    </row>
+    <row r="598" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP598" s="42"/>
+      <c r="AQ598" s="42"/>
+      <c r="AS598" s="42"/>
+    </row>
+    <row r="599" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP599" s="42"/>
+      <c r="AQ599" s="42"/>
+      <c r="AS599" s="42"/>
+    </row>
+    <row r="600" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP600" s="42"/>
+      <c r="AQ600" s="42"/>
+      <c r="AS600" s="42"/>
+    </row>
+    <row r="601" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP601" s="42"/>
+      <c r="AQ601" s="42"/>
+      <c r="AS601" s="42"/>
+    </row>
+    <row r="602" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP602" s="42"/>
+      <c r="AQ602" s="42"/>
+      <c r="AS602" s="42"/>
+    </row>
+    <row r="603" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP603" s="42"/>
+      <c r="AQ603" s="42"/>
+      <c r="AS603" s="42"/>
+    </row>
+    <row r="604" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP604" s="42"/>
+      <c r="AQ604" s="42"/>
+      <c r="AS604" s="42"/>
+    </row>
+    <row r="605" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP605" s="42"/>
+      <c r="AQ605" s="42"/>
+      <c r="AS605" s="42"/>
+    </row>
+    <row r="606" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP606" s="42"/>
+      <c r="AQ606" s="42"/>
+      <c r="AS606" s="42"/>
+    </row>
+    <row r="607" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP607" s="42"/>
+      <c r="AQ607" s="42"/>
+      <c r="AS607" s="42"/>
+    </row>
+    <row r="608" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP608" s="42"/>
+      <c r="AQ608" s="42"/>
+      <c r="AS608" s="42"/>
+    </row>
+    <row r="609" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP609" s="42"/>
+      <c r="AQ609" s="42"/>
+      <c r="AS609" s="42"/>
+    </row>
+    <row r="610" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP610" s="42"/>
+      <c r="AQ610" s="42"/>
+      <c r="AS610" s="42"/>
+    </row>
+    <row r="611" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP611" s="42"/>
+      <c r="AQ611" s="42"/>
+      <c r="AS611" s="42"/>
+    </row>
+    <row r="612" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP612" s="42"/>
+      <c r="AQ612" s="42"/>
+      <c r="AS612" s="42"/>
+    </row>
+    <row r="613" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP613" s="42"/>
+      <c r="AQ613" s="42"/>
+      <c r="AS613" s="42"/>
+    </row>
+    <row r="614" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP614" s="42"/>
+      <c r="AQ614" s="42"/>
+      <c r="AS614" s="42"/>
+    </row>
+    <row r="615" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP615" s="42"/>
+      <c r="AQ615" s="42"/>
+      <c r="AS615" s="42"/>
+    </row>
+    <row r="616" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP616" s="42"/>
+      <c r="AQ616" s="42"/>
+      <c r="AS616" s="42"/>
+    </row>
+    <row r="617" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP617" s="42"/>
+      <c r="AQ617" s="42"/>
+      <c r="AS617" s="42"/>
+    </row>
+    <row r="618" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP618" s="42"/>
+      <c r="AQ618" s="42"/>
+      <c r="AS618" s="42"/>
+    </row>
+    <row r="619" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP619" s="42"/>
+      <c r="AQ619" s="42"/>
+      <c r="AS619" s="42"/>
+    </row>
+    <row r="620" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP620" s="42"/>
+      <c r="AQ620" s="42"/>
+      <c r="AS620" s="42"/>
+    </row>
+    <row r="621" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP621" s="42"/>
+      <c r="AQ621" s="42"/>
+      <c r="AS621" s="42"/>
+    </row>
+    <row r="622" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP622" s="42"/>
+      <c r="AQ622" s="42"/>
+      <c r="AS622" s="42"/>
+    </row>
+    <row r="623" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP623" s="42"/>
+      <c r="AQ623" s="42"/>
+      <c r="AS623" s="42"/>
+    </row>
+    <row r="624" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP624" s="42"/>
+      <c r="AQ624" s="42"/>
+      <c r="AS624" s="42"/>
+    </row>
+    <row r="625" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP625" s="42"/>
+      <c r="AQ625" s="42"/>
+      <c r="AS625" s="42"/>
+    </row>
+    <row r="626" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP626" s="42"/>
+      <c r="AQ626" s="42"/>
+      <c r="AS626" s="42"/>
+    </row>
+    <row r="627" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP627" s="42"/>
+      <c r="AQ627" s="42"/>
+      <c r="AS627" s="42"/>
+    </row>
+    <row r="628" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP628" s="42"/>
+      <c r="AQ628" s="42"/>
+      <c r="AS628" s="42"/>
+    </row>
+    <row r="629" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP629" s="42"/>
+      <c r="AQ629" s="42"/>
+      <c r="AS629" s="42"/>
+    </row>
+    <row r="630" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP630" s="42"/>
+      <c r="AQ630" s="42"/>
+      <c r="AS630" s="42"/>
+    </row>
+    <row r="631" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP631" s="42"/>
+      <c r="AQ631" s="42"/>
+      <c r="AS631" s="42"/>
+    </row>
+    <row r="632" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP632" s="42"/>
+      <c r="AQ632" s="42"/>
+      <c r="AS632" s="42"/>
+    </row>
+    <row r="633" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP633" s="42"/>
+      <c r="AQ633" s="42"/>
+      <c r="AS633" s="42"/>
+    </row>
+    <row r="634" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP634" s="42"/>
+      <c r="AQ634" s="42"/>
+      <c r="AS634" s="42"/>
+    </row>
+    <row r="635" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP635" s="42"/>
+      <c r="AQ635" s="42"/>
+      <c r="AS635" s="42"/>
+    </row>
+    <row r="636" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP636" s="42"/>
+      <c r="AQ636" s="42"/>
+      <c r="AS636" s="42"/>
+    </row>
+    <row r="637" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP637" s="42"/>
+      <c r="AQ637" s="42"/>
+      <c r="AS637" s="42"/>
+    </row>
+    <row r="638" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP638" s="42"/>
+      <c r="AQ638" s="42"/>
+      <c r="AS638" s="42"/>
+    </row>
+    <row r="639" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP639" s="42"/>
+      <c r="AQ639" s="42"/>
+      <c r="AS639" s="42"/>
+    </row>
+    <row r="640" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP640" s="42"/>
+      <c r="AQ640" s="42"/>
+      <c r="AS640" s="42"/>
+    </row>
+    <row r="641" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP641" s="42"/>
+      <c r="AQ641" s="42"/>
+      <c r="AS641" s="42"/>
+    </row>
+    <row r="642" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP642" s="42"/>
+      <c r="AQ642" s="42"/>
+      <c r="AS642" s="42"/>
+    </row>
+    <row r="643" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP643" s="42"/>
+      <c r="AQ643" s="42"/>
+      <c r="AS643" s="42"/>
+    </row>
+    <row r="644" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP644" s="42"/>
+      <c r="AQ644" s="42"/>
+      <c r="AS644" s="42"/>
+    </row>
+    <row r="645" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP645" s="42"/>
+      <c r="AQ645" s="42"/>
+      <c r="AS645" s="42"/>
+    </row>
+    <row r="646" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP646" s="42"/>
+      <c r="AQ646" s="42"/>
+      <c r="AS646" s="42"/>
+    </row>
+    <row r="647" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP647" s="42"/>
+      <c r="AQ647" s="42"/>
+      <c r="AS647" s="42"/>
+    </row>
+    <row r="648" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP648" s="42"/>
+      <c r="AQ648" s="42"/>
+      <c r="AS648" s="42"/>
+    </row>
+    <row r="649" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP649" s="42"/>
+      <c r="AQ649" s="42"/>
+      <c r="AS649" s="42"/>
+    </row>
+    <row r="650" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP650" s="42"/>
+      <c r="AQ650" s="42"/>
+      <c r="AS650" s="42"/>
+    </row>
+    <row r="651" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP651" s="42"/>
+      <c r="AQ651" s="42"/>
+      <c r="AS651" s="42"/>
+    </row>
+    <row r="652" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP652" s="42"/>
+      <c r="AQ652" s="42"/>
+      <c r="AS652" s="42"/>
+    </row>
+    <row r="653" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP653" s="42"/>
+      <c r="AQ653" s="42"/>
+      <c r="AS653" s="42"/>
+    </row>
+    <row r="654" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP654" s="42"/>
+      <c r="AQ654" s="42"/>
+      <c r="AS654" s="42"/>
+    </row>
+    <row r="655" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP655" s="42"/>
+      <c r="AQ655" s="42"/>
+      <c r="AS655" s="42"/>
+    </row>
+    <row r="656" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP656" s="42"/>
+      <c r="AQ656" s="42"/>
+      <c r="AS656" s="42"/>
+    </row>
+    <row r="657" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP657" s="42"/>
+      <c r="AQ657" s="42"/>
+      <c r="AS657" s="42"/>
+    </row>
+    <row r="658" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP658" s="42"/>
+      <c r="AQ658" s="42"/>
+      <c r="AS658" s="42"/>
+    </row>
+    <row r="659" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP659" s="42"/>
+      <c r="AQ659" s="42"/>
+      <c r="AS659" s="42"/>
+    </row>
+    <row r="660" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP660" s="42"/>
+      <c r="AQ660" s="42"/>
+      <c r="AS660" s="42"/>
+    </row>
+    <row r="661" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP661" s="42"/>
+      <c r="AQ661" s="42"/>
+      <c r="AS661" s="42"/>
+    </row>
+    <row r="662" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP662" s="42"/>
+      <c r="AQ662" s="42"/>
+      <c r="AS662" s="42"/>
+    </row>
+    <row r="663" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP663" s="42"/>
+      <c r="AQ663" s="42"/>
+      <c r="AS663" s="42"/>
+    </row>
+    <row r="664" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP664" s="42"/>
+      <c r="AQ664" s="42"/>
+      <c r="AS664" s="42"/>
+    </row>
+    <row r="665" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP665" s="42"/>
+      <c r="AQ665" s="42"/>
+      <c r="AS665" s="42"/>
+    </row>
+    <row r="666" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP666" s="42"/>
+      <c r="AQ666" s="42"/>
+      <c r="AS666" s="42"/>
+    </row>
+    <row r="667" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP667" s="42"/>
+      <c r="AQ667" s="42"/>
+      <c r="AS667" s="42"/>
+    </row>
+    <row r="668" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP668" s="42"/>
+      <c r="AQ668" s="42"/>
+      <c r="AS668" s="42"/>
+    </row>
+    <row r="669" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP669" s="42"/>
+      <c r="AQ669" s="42"/>
+      <c r="AS669" s="42"/>
+    </row>
+    <row r="670" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP670" s="42"/>
+      <c r="AQ670" s="42"/>
+      <c r="AS670" s="42"/>
+    </row>
+    <row r="671" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP671" s="42"/>
+      <c r="AQ671" s="42"/>
+      <c r="AS671" s="42"/>
+    </row>
+    <row r="672" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP672" s="42"/>
+      <c r="AQ672" s="42"/>
+      <c r="AS672" s="42"/>
+    </row>
+    <row r="673" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP673" s="42"/>
+      <c r="AQ673" s="42"/>
+      <c r="AS673" s="42"/>
+    </row>
+    <row r="674" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP674" s="42"/>
+      <c r="AQ674" s="42"/>
+      <c r="AS674" s="42"/>
+    </row>
+    <row r="675" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP675" s="42"/>
+      <c r="AQ675" s="42"/>
+      <c r="AS675" s="42"/>
+    </row>
+    <row r="676" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP676" s="42"/>
+      <c r="AQ676" s="42"/>
+      <c r="AS676" s="42"/>
+    </row>
+    <row r="677" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP677" s="42"/>
+      <c r="AQ677" s="42"/>
+      <c r="AS677" s="42"/>
+    </row>
+    <row r="678" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP678" s="42"/>
+      <c r="AQ678" s="42"/>
+      <c r="AS678" s="42"/>
+    </row>
+    <row r="679" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP679" s="42"/>
+      <c r="AQ679" s="42"/>
+      <c r="AS679" s="42"/>
+    </row>
+    <row r="680" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP680" s="42"/>
+      <c r="AQ680" s="42"/>
+      <c r="AS680" s="42"/>
+    </row>
+    <row r="681" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP681" s="42"/>
+      <c r="AQ681" s="42"/>
+      <c r="AS681" s="42"/>
+    </row>
+    <row r="682" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP682" s="42"/>
+      <c r="AQ682" s="42"/>
+      <c r="AS682" s="42"/>
+    </row>
+    <row r="683" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP683" s="42"/>
+      <c r="AQ683" s="42"/>
+      <c r="AS683" s="42"/>
+    </row>
+    <row r="684" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP684" s="42"/>
+      <c r="AQ684" s="42"/>
+      <c r="AS684" s="42"/>
+    </row>
+    <row r="685" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP685" s="42"/>
+      <c r="AQ685" s="42"/>
+      <c r="AS685" s="42"/>
+    </row>
+    <row r="686" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP686" s="42"/>
+      <c r="AQ686" s="42"/>
+      <c r="AS686" s="42"/>
+    </row>
+    <row r="687" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP687" s="42"/>
+      <c r="AQ687" s="42"/>
+      <c r="AS687" s="42"/>
+    </row>
+    <row r="688" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP688" s="42"/>
+      <c r="AQ688" s="42"/>
+      <c r="AS688" s="42"/>
+    </row>
+    <row r="689" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP689" s="42"/>
+      <c r="AQ689" s="42"/>
+      <c r="AS689" s="42"/>
+    </row>
+    <row r="690" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP690" s="42"/>
+      <c r="AQ690" s="42"/>
+      <c r="AS690" s="42"/>
+    </row>
+    <row r="691" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP691" s="42"/>
+      <c r="AQ691" s="42"/>
+      <c r="AS691" s="42"/>
+    </row>
+    <row r="692" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP692" s="42"/>
+      <c r="AQ692" s="42"/>
+      <c r="AS692" s="42"/>
+    </row>
+    <row r="693" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP693" s="42"/>
+      <c r="AQ693" s="42"/>
+      <c r="AS693" s="42"/>
+    </row>
+    <row r="694" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP694" s="42"/>
+      <c r="AQ694" s="42"/>
+      <c r="AS694" s="42"/>
+    </row>
+    <row r="695" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP695" s="42"/>
+      <c r="AQ695" s="42"/>
+      <c r="AS695" s="42"/>
+    </row>
+    <row r="696" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP696" s="42"/>
+      <c r="AQ696" s="42"/>
+      <c r="AS696" s="42"/>
+    </row>
+    <row r="697" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP697" s="42"/>
+      <c r="AQ697" s="42"/>
+      <c r="AS697" s="42"/>
+    </row>
+    <row r="698" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP698" s="42"/>
+      <c r="AQ698" s="42"/>
+      <c r="AS698" s="42"/>
+    </row>
+    <row r="699" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP699" s="42"/>
+      <c r="AQ699" s="42"/>
+      <c r="AS699" s="42"/>
+    </row>
+    <row r="700" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP700" s="42"/>
+      <c r="AQ700" s="42"/>
+      <c r="AS700" s="42"/>
+    </row>
+    <row r="701" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP701" s="42"/>
+      <c r="AQ701" s="42"/>
+      <c r="AS701" s="42"/>
+    </row>
+    <row r="702" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP702" s="42"/>
+      <c r="AQ702" s="42"/>
+      <c r="AS702" s="42"/>
+    </row>
+    <row r="703" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP703" s="42"/>
+      <c r="AQ703" s="42"/>
+      <c r="AS703" s="42"/>
+    </row>
+    <row r="704" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP704" s="42"/>
+      <c r="AQ704" s="42"/>
+      <c r="AS704" s="42"/>
+    </row>
+    <row r="705" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP705" s="42"/>
+      <c r="AQ705" s="42"/>
+      <c r="AS705" s="42"/>
+    </row>
+    <row r="706" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP706" s="42"/>
+      <c r="AQ706" s="42"/>
+      <c r="AS706" s="42"/>
+    </row>
+    <row r="707" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP707" s="42"/>
+      <c r="AQ707" s="42"/>
+      <c r="AS707" s="42"/>
+    </row>
+    <row r="708" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP708" s="42"/>
+      <c r="AQ708" s="42"/>
+      <c r="AS708" s="42"/>
+    </row>
+    <row r="709" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP709" s="42"/>
+      <c r="AQ709" s="42"/>
+      <c r="AS709" s="42"/>
+    </row>
+    <row r="710" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP710" s="42"/>
+      <c r="AQ710" s="42"/>
+      <c r="AS710" s="42"/>
+    </row>
+    <row r="711" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP711" s="42"/>
+      <c r="AQ711" s="42"/>
+      <c r="AS711" s="42"/>
+    </row>
+    <row r="712" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP712" s="42"/>
+      <c r="AQ712" s="42"/>
+      <c r="AS712" s="42"/>
+    </row>
+    <row r="713" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP713" s="42"/>
+      <c r="AQ713" s="42"/>
+      <c r="AS713" s="42"/>
+    </row>
+    <row r="714" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP714" s="42"/>
+      <c r="AQ714" s="42"/>
+      <c r="AS714" s="42"/>
+    </row>
+    <row r="715" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP715" s="42"/>
+      <c r="AQ715" s="42"/>
+      <c r="AS715" s="42"/>
+    </row>
+    <row r="716" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP716" s="42"/>
+      <c r="AQ716" s="42"/>
+      <c r="AS716" s="42"/>
+    </row>
+    <row r="717" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP717" s="42"/>
+      <c r="AQ717" s="42"/>
+      <c r="AS717" s="42"/>
+    </row>
+    <row r="718" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP718" s="42"/>
+      <c r="AQ718" s="42"/>
+      <c r="AS718" s="42"/>
+    </row>
+    <row r="719" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP719" s="42"/>
+      <c r="AQ719" s="42"/>
+      <c r="AS719" s="42"/>
+    </row>
+    <row r="720" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP720" s="42"/>
+      <c r="AQ720" s="42"/>
+      <c r="AS720" s="42"/>
+    </row>
+    <row r="721" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP721" s="42"/>
+      <c r="AQ721" s="42"/>
+      <c r="AS721" s="42"/>
+    </row>
+    <row r="722" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP722" s="42"/>
+      <c r="AQ722" s="42"/>
+      <c r="AS722" s="42"/>
+    </row>
+    <row r="723" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP723" s="42"/>
+      <c r="AQ723" s="42"/>
+      <c r="AS723" s="42"/>
+    </row>
+    <row r="724" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP724" s="42"/>
+      <c r="AQ724" s="42"/>
+      <c r="AS724" s="42"/>
+    </row>
+    <row r="725" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP725" s="42"/>
+      <c r="AQ725" s="42"/>
+      <c r="AS725" s="42"/>
+    </row>
+    <row r="726" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP726" s="42"/>
+      <c r="AQ726" s="42"/>
+      <c r="AS726" s="42"/>
+    </row>
+    <row r="727" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP727" s="42"/>
+      <c r="AQ727" s="42"/>
+      <c r="AS727" s="42"/>
+    </row>
+    <row r="728" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP728" s="42"/>
+      <c r="AQ728" s="42"/>
+      <c r="AS728" s="42"/>
+    </row>
+    <row r="729" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP729" s="42"/>
+      <c r="AQ729" s="42"/>
+      <c r="AS729" s="42"/>
+    </row>
+    <row r="730" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP730" s="42"/>
+      <c r="AQ730" s="42"/>
+      <c r="AS730" s="42"/>
+    </row>
+    <row r="731" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP731" s="42"/>
+      <c r="AQ731" s="42"/>
+      <c r="AS731" s="42"/>
+    </row>
+    <row r="732" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP732" s="42"/>
+      <c r="AQ732" s="42"/>
+      <c r="AS732" s="42"/>
+    </row>
+    <row r="733" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP733" s="42"/>
+      <c r="AQ733" s="42"/>
+      <c r="AS733" s="42"/>
+    </row>
+    <row r="734" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP734" s="42"/>
+      <c r="AQ734" s="42"/>
+      <c r="AS734" s="42"/>
+    </row>
+    <row r="735" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP735" s="42"/>
+      <c r="AQ735" s="42"/>
+      <c r="AS735" s="42"/>
+    </row>
+    <row r="736" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP736" s="42"/>
+      <c r="AQ736" s="42"/>
+      <c r="AS736" s="42"/>
+    </row>
+    <row r="737" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP737" s="42"/>
+      <c r="AQ737" s="42"/>
+      <c r="AS737" s="42"/>
+    </row>
+    <row r="738" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP738" s="42"/>
+      <c r="AQ738" s="42"/>
+      <c r="AS738" s="42"/>
+    </row>
+    <row r="739" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP739" s="42"/>
+      <c r="AQ739" s="42"/>
+      <c r="AS739" s="42"/>
+    </row>
+    <row r="740" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP740" s="42"/>
+      <c r="AQ740" s="42"/>
+      <c r="AS740" s="42"/>
+    </row>
+    <row r="741" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP741" s="42"/>
+      <c r="AQ741" s="42"/>
+      <c r="AS741" s="42"/>
+    </row>
+    <row r="742" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP742" s="42"/>
+      <c r="AQ742" s="42"/>
+      <c r="AS742" s="42"/>
+    </row>
+    <row r="743" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP743" s="42"/>
+      <c r="AQ743" s="42"/>
+      <c r="AS743" s="42"/>
+    </row>
+    <row r="744" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP744" s="42"/>
+      <c r="AQ744" s="42"/>
+      <c r="AS744" s="42"/>
+    </row>
+    <row r="745" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP745" s="42"/>
+      <c r="AQ745" s="42"/>
+      <c r="AS745" s="42"/>
+    </row>
+    <row r="746" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP746" s="42"/>
+      <c r="AQ746" s="42"/>
+      <c r="AS746" s="42"/>
+    </row>
+    <row r="747" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP747" s="42"/>
+      <c r="AQ747" s="42"/>
+      <c r="AS747" s="42"/>
+    </row>
+    <row r="748" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP748" s="42"/>
+      <c r="AQ748" s="42"/>
+      <c r="AS748" s="42"/>
+    </row>
+    <row r="749" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP749" s="42"/>
+      <c r="AQ749" s="42"/>
+      <c r="AS749" s="42"/>
+    </row>
+    <row r="750" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP750" s="42"/>
+      <c r="AQ750" s="42"/>
+      <c r="AS750" s="42"/>
+    </row>
+    <row r="751" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP751" s="42"/>
+      <c r="AQ751" s="42"/>
+      <c r="AS751" s="42"/>
+    </row>
+    <row r="752" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP752" s="42"/>
+      <c r="AQ752" s="42"/>
+      <c r="AS752" s="42"/>
+    </row>
+    <row r="753" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP753" s="42"/>
+      <c r="AQ753" s="42"/>
+      <c r="AS753" s="42"/>
+    </row>
+    <row r="754" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP754" s="42"/>
+      <c r="AQ754" s="42"/>
+      <c r="AS754" s="42"/>
+    </row>
+    <row r="755" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP755" s="42"/>
+      <c r="AQ755" s="42"/>
+      <c r="AS755" s="42"/>
+    </row>
+    <row r="756" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP756" s="42"/>
+      <c r="AQ756" s="42"/>
+      <c r="AS756" s="42"/>
+    </row>
+    <row r="757" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP757" s="42"/>
+      <c r="AQ757" s="42"/>
+      <c r="AS757" s="42"/>
+    </row>
+    <row r="758" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP758" s="42"/>
+      <c r="AQ758" s="42"/>
+      <c r="AS758" s="42"/>
+    </row>
+    <row r="759" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP759" s="42"/>
+      <c r="AQ759" s="42"/>
+      <c r="AS759" s="42"/>
+    </row>
+    <row r="760" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP760" s="42"/>
+      <c r="AQ760" s="42"/>
+      <c r="AS760" s="42"/>
+    </row>
+    <row r="761" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP761" s="42"/>
+      <c r="AQ761" s="42"/>
+      <c r="AS761" s="42"/>
+    </row>
+    <row r="762" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP762" s="42"/>
+      <c r="AQ762" s="42"/>
+      <c r="AS762" s="42"/>
+    </row>
+    <row r="763" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP763" s="42"/>
+      <c r="AQ763" s="42"/>
+      <c r="AS763" s="42"/>
+    </row>
+    <row r="764" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP764" s="42"/>
+      <c r="AQ764" s="42"/>
+      <c r="AS764" s="42"/>
+    </row>
+    <row r="765" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP765" s="42"/>
+      <c r="AQ765" s="42"/>
+      <c r="AS765" s="42"/>
+    </row>
+    <row r="766" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP766" s="42"/>
+      <c r="AQ766" s="42"/>
+      <c r="AS766" s="42"/>
+    </row>
+    <row r="767" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP767" s="42"/>
+      <c r="AQ767" s="42"/>
+      <c r="AS767" s="42"/>
+    </row>
+    <row r="768" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP768" s="42"/>
+      <c r="AQ768" s="42"/>
+      <c r="AS768" s="42"/>
+    </row>
+    <row r="769" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP769" s="42"/>
+      <c r="AQ769" s="42"/>
+      <c r="AS769" s="42"/>
+    </row>
+    <row r="770" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP770" s="42"/>
+      <c r="AQ770" s="42"/>
+      <c r="AS770" s="42"/>
+    </row>
+    <row r="771" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP771" s="42"/>
+      <c r="AQ771" s="42"/>
+      <c r="AS771" s="42"/>
+    </row>
+    <row r="772" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP772" s="42"/>
+      <c r="AQ772" s="42"/>
+      <c r="AS772" s="42"/>
+    </row>
+    <row r="773" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP773" s="42"/>
+      <c r="AQ773" s="42"/>
+      <c r="AS773" s="42"/>
+    </row>
+    <row r="774" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP774" s="42"/>
+      <c r="AQ774" s="42"/>
+      <c r="AS774" s="42"/>
+    </row>
+    <row r="775" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP775" s="42"/>
+      <c r="AQ775" s="42"/>
+      <c r="AS775" s="42"/>
+    </row>
+    <row r="776" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP776" s="42"/>
+      <c r="AQ776" s="42"/>
+      <c r="AS776" s="42"/>
+    </row>
+    <row r="777" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP777" s="42"/>
+      <c r="AQ777" s="42"/>
+      <c r="AS777" s="42"/>
+    </row>
+    <row r="778" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP778" s="42"/>
+      <c r="AQ778" s="42"/>
+      <c r="AS778" s="42"/>
+    </row>
+    <row r="779" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP779" s="42"/>
+      <c r="AQ779" s="42"/>
+      <c r="AS779" s="42"/>
+    </row>
+    <row r="780" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP780" s="42"/>
+      <c r="AQ780" s="42"/>
+      <c r="AS780" s="42"/>
+    </row>
+    <row r="781" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP781" s="42"/>
+      <c r="AQ781" s="42"/>
+      <c r="AS781" s="42"/>
+    </row>
+    <row r="782" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP782" s="42"/>
+      <c r="AQ782" s="42"/>
+      <c r="AS782" s="42"/>
+    </row>
+    <row r="783" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP783" s="42"/>
+      <c r="AQ783" s="42"/>
+      <c r="AS783" s="42"/>
+    </row>
+    <row r="784" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP784" s="42"/>
+      <c r="AQ784" s="42"/>
+      <c r="AS784" s="42"/>
+    </row>
+    <row r="785" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP785" s="42"/>
+      <c r="AQ785" s="42"/>
+      <c r="AS785" s="42"/>
+    </row>
+    <row r="786" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP786" s="42"/>
+      <c r="AQ786" s="42"/>
+      <c r="AS786" s="42"/>
+    </row>
+    <row r="787" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP787" s="42"/>
+      <c r="AQ787" s="42"/>
+      <c r="AS787" s="42"/>
+    </row>
+    <row r="788" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP788" s="42"/>
+      <c r="AQ788" s="42"/>
+      <c r="AS788" s="42"/>
+    </row>
+    <row r="789" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP789" s="42"/>
+      <c r="AQ789" s="42"/>
+      <c r="AS789" s="42"/>
+    </row>
+    <row r="790" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP790" s="42"/>
+      <c r="AQ790" s="42"/>
+      <c r="AS790" s="42"/>
+    </row>
+    <row r="791" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP791" s="42"/>
+      <c r="AQ791" s="42"/>
+      <c r="AS791" s="42"/>
+    </row>
+    <row r="792" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP792" s="42"/>
+      <c r="AQ792" s="42"/>
+      <c r="AS792" s="42"/>
+    </row>
+    <row r="793" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP793" s="42"/>
+      <c r="AQ793" s="42"/>
+      <c r="AS793" s="42"/>
+    </row>
+    <row r="794" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP794" s="42"/>
+      <c r="AQ794" s="42"/>
+      <c r="AS794" s="42"/>
+    </row>
+    <row r="795" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP795" s="42"/>
+      <c r="AQ795" s="42"/>
+      <c r="AS795" s="42"/>
+    </row>
+    <row r="796" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP796" s="42"/>
+      <c r="AQ796" s="42"/>
+      <c r="AS796" s="42"/>
+    </row>
+    <row r="797" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP797" s="42"/>
+      <c r="AQ797" s="42"/>
+      <c r="AS797" s="42"/>
+    </row>
+    <row r="798" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP798" s="42"/>
+      <c r="AQ798" s="42"/>
+      <c r="AS798" s="42"/>
+    </row>
+    <row r="799" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP799" s="42"/>
+      <c r="AQ799" s="42"/>
+      <c r="AS799" s="42"/>
+    </row>
+    <row r="800" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP800" s="42"/>
+      <c r="AQ800" s="42"/>
+      <c r="AS800" s="42"/>
+    </row>
+    <row r="801" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP801" s="42"/>
+      <c r="AQ801" s="42"/>
+      <c r="AS801" s="42"/>
+    </row>
+    <row r="802" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP802" s="42"/>
+      <c r="AQ802" s="42"/>
+      <c r="AS802" s="42"/>
+    </row>
+    <row r="803" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP803" s="42"/>
+      <c r="AQ803" s="42"/>
+      <c r="AS803" s="42"/>
+    </row>
+    <row r="804" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP804" s="42"/>
+      <c r="AQ804" s="42"/>
+      <c r="AS804" s="42"/>
+    </row>
+    <row r="805" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP805" s="42"/>
+      <c r="AQ805" s="42"/>
+      <c r="AS805" s="42"/>
+    </row>
+    <row r="806" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP806" s="42"/>
+      <c r="AQ806" s="42"/>
+      <c r="AS806" s="42"/>
+    </row>
+    <row r="807" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP807" s="42"/>
+      <c r="AQ807" s="42"/>
+      <c r="AS807" s="42"/>
+    </row>
+    <row r="808" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP808" s="42"/>
+      <c r="AQ808" s="42"/>
+      <c r="AS808" s="42"/>
+    </row>
+    <row r="809" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP809" s="42"/>
+      <c r="AQ809" s="42"/>
+      <c r="AS809" s="42"/>
+    </row>
+    <row r="810" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP810" s="42"/>
+      <c r="AQ810" s="42"/>
+      <c r="AS810" s="42"/>
+    </row>
+    <row r="811" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP811" s="42"/>
+      <c r="AQ811" s="42"/>
+      <c r="AS811" s="42"/>
+    </row>
+    <row r="812" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP812" s="42"/>
+      <c r="AQ812" s="42"/>
+      <c r="AS812" s="42"/>
+    </row>
+    <row r="813" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP813" s="42"/>
+      <c r="AQ813" s="42"/>
+      <c r="AS813" s="42"/>
+    </row>
+    <row r="814" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP814" s="42"/>
+      <c r="AQ814" s="42"/>
+      <c r="AS814" s="42"/>
+    </row>
+    <row r="815" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP815" s="42"/>
+      <c r="AQ815" s="42"/>
+      <c r="AS815" s="42"/>
+    </row>
+    <row r="816" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP816" s="42"/>
+      <c r="AQ816" s="42"/>
+      <c r="AS816" s="42"/>
+    </row>
+    <row r="817" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP817" s="42"/>
+      <c r="AQ817" s="42"/>
+      <c r="AS817" s="42"/>
+    </row>
+    <row r="818" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP818" s="42"/>
+      <c r="AQ818" s="42"/>
+      <c r="AS818" s="42"/>
+    </row>
+    <row r="819" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP819" s="42"/>
+      <c r="AQ819" s="42"/>
+      <c r="AS819" s="42"/>
+    </row>
+    <row r="820" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP820" s="42"/>
+      <c r="AQ820" s="42"/>
+      <c r="AS820" s="42"/>
+    </row>
+    <row r="821" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP821" s="42"/>
+      <c r="AQ821" s="42"/>
+      <c r="AS821" s="42"/>
+    </row>
+    <row r="822" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP822" s="42"/>
+      <c r="AQ822" s="42"/>
+      <c r="AS822" s="42"/>
+    </row>
+    <row r="823" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP823" s="42"/>
+      <c r="AQ823" s="42"/>
+      <c r="AS823" s="42"/>
+    </row>
+    <row r="824" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP824" s="42"/>
+      <c r="AQ824" s="42"/>
+      <c r="AS824" s="42"/>
+    </row>
+    <row r="825" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP825" s="42"/>
+      <c r="AQ825" s="42"/>
+      <c r="AS825" s="42"/>
+    </row>
+    <row r="826" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP826" s="42"/>
+      <c r="AQ826" s="42"/>
+      <c r="AS826" s="42"/>
+    </row>
+    <row r="827" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP827" s="42"/>
+      <c r="AQ827" s="42"/>
+      <c r="AS827" s="42"/>
+    </row>
+    <row r="828" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP828" s="42"/>
+      <c r="AQ828" s="42"/>
+      <c r="AS828" s="42"/>
+    </row>
+    <row r="829" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP829" s="42"/>
+      <c r="AQ829" s="42"/>
+      <c r="AS829" s="42"/>
+    </row>
+    <row r="830" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP830" s="42"/>
+      <c r="AQ830" s="42"/>
+      <c r="AS830" s="42"/>
+    </row>
+    <row r="831" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP831" s="42"/>
+      <c r="AQ831" s="42"/>
+      <c r="AS831" s="42"/>
+    </row>
+    <row r="832" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP832" s="42"/>
+      <c r="AQ832" s="42"/>
+      <c r="AS832" s="42"/>
+    </row>
+    <row r="833" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP833" s="42"/>
+      <c r="AQ833" s="42"/>
+      <c r="AS833" s="42"/>
+    </row>
+    <row r="834" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP834" s="42"/>
+      <c r="AQ834" s="42"/>
+      <c r="AS834" s="42"/>
+    </row>
+    <row r="835" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP835" s="42"/>
+      <c r="AQ835" s="42"/>
+      <c r="AS835" s="42"/>
+    </row>
+    <row r="836" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP836" s="42"/>
+      <c r="AQ836" s="42"/>
+      <c r="AS836" s="42"/>
+    </row>
+    <row r="837" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP837" s="42"/>
+      <c r="AQ837" s="42"/>
+      <c r="AS837" s="42"/>
+    </row>
+    <row r="838" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP838" s="42"/>
+      <c r="AQ838" s="42"/>
+      <c r="AS838" s="42"/>
+    </row>
+    <row r="839" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP839" s="42"/>
+      <c r="AQ839" s="42"/>
+      <c r="AS839" s="42"/>
+    </row>
+    <row r="840" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP840" s="42"/>
+      <c r="AQ840" s="42"/>
+      <c r="AS840" s="42"/>
+    </row>
+    <row r="841" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP841" s="42"/>
+      <c r="AQ841" s="42"/>
+      <c r="AS841" s="42"/>
+    </row>
+    <row r="842" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP842" s="42"/>
+      <c r="AQ842" s="42"/>
+      <c r="AS842" s="42"/>
+    </row>
+    <row r="843" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP843" s="42"/>
+      <c r="AQ843" s="42"/>
+      <c r="AS843" s="42"/>
+    </row>
+    <row r="844" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP844" s="42"/>
+      <c r="AQ844" s="42"/>
+      <c r="AS844" s="42"/>
+    </row>
+    <row r="845" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP845" s="42"/>
+      <c r="AQ845" s="42"/>
+      <c r="AS845" s="42"/>
+    </row>
+    <row r="846" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP846" s="42"/>
+      <c r="AQ846" s="42"/>
+      <c r="AS846" s="42"/>
+    </row>
+    <row r="847" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP847" s="42"/>
+      <c r="AQ847" s="42"/>
+      <c r="AS847" s="42"/>
+    </row>
+    <row r="848" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP848" s="42"/>
+      <c r="AQ848" s="42"/>
+      <c r="AS848" s="42"/>
+    </row>
+    <row r="849" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP849" s="42"/>
+      <c r="AQ849" s="42"/>
+      <c r="AS849" s="42"/>
+    </row>
+    <row r="850" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP850" s="42"/>
+      <c r="AQ850" s="42"/>
+      <c r="AS850" s="42"/>
+    </row>
+    <row r="851" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP851" s="42"/>
+      <c r="AQ851" s="42"/>
+      <c r="AS851" s="42"/>
+    </row>
+    <row r="852" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP852" s="42"/>
+      <c r="AQ852" s="42"/>
+      <c r="AS852" s="42"/>
+    </row>
+    <row r="853" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP853" s="42"/>
+      <c r="AQ853" s="42"/>
+      <c r="AS853" s="42"/>
+    </row>
+    <row r="854" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP854" s="42"/>
+      <c r="AQ854" s="42"/>
+      <c r="AS854" s="42"/>
+    </row>
+    <row r="855" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP855" s="42"/>
+      <c r="AQ855" s="42"/>
+      <c r="AS855" s="42"/>
+    </row>
+    <row r="856" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP856" s="42"/>
+      <c r="AQ856" s="42"/>
+      <c r="AS856" s="42"/>
+    </row>
+    <row r="857" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP857" s="42"/>
+      <c r="AQ857" s="42"/>
+      <c r="AS857" s="42"/>
+    </row>
+    <row r="858" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP858" s="42"/>
+      <c r="AQ858" s="42"/>
+      <c r="AS858" s="42"/>
+    </row>
+    <row r="859" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP859" s="42"/>
+      <c r="AQ859" s="42"/>
+      <c r="AS859" s="42"/>
+    </row>
+    <row r="860" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP860" s="42"/>
+      <c r="AQ860" s="42"/>
+      <c r="AS860" s="42"/>
+    </row>
+    <row r="861" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP861" s="42"/>
+      <c r="AQ861" s="42"/>
+      <c r="AS861" s="42"/>
+    </row>
+    <row r="862" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP862" s="42"/>
+      <c r="AQ862" s="42"/>
+      <c r="AS862" s="42"/>
+    </row>
+    <row r="863" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP863" s="42"/>
+      <c r="AQ863" s="42"/>
+      <c r="AS863" s="42"/>
+    </row>
+    <row r="864" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP864" s="42"/>
+      <c r="AQ864" s="42"/>
+      <c r="AS864" s="42"/>
+    </row>
+    <row r="865" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP865" s="42"/>
+      <c r="AQ865" s="42"/>
+      <c r="AS865" s="42"/>
+    </row>
+    <row r="866" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP866" s="42"/>
+      <c r="AQ866" s="42"/>
+      <c r="AS866" s="42"/>
+    </row>
+    <row r="867" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP867" s="42"/>
+      <c r="AQ867" s="42"/>
+      <c r="AS867" s="42"/>
+    </row>
+    <row r="868" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP868" s="42"/>
+      <c r="AQ868" s="42"/>
+      <c r="AS868" s="42"/>
+    </row>
+    <row r="869" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP869" s="42"/>
+      <c r="AQ869" s="42"/>
+      <c r="AS869" s="42"/>
+    </row>
+    <row r="870" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP870" s="42"/>
+      <c r="AQ870" s="42"/>
+      <c r="AS870" s="42"/>
+    </row>
+    <row r="871" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP871" s="42"/>
+      <c r="AQ871" s="42"/>
+      <c r="AS871" s="42"/>
+    </row>
+    <row r="872" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP872" s="42"/>
+      <c r="AQ872" s="42"/>
+      <c r="AS872" s="42"/>
+    </row>
+    <row r="873" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP873" s="42"/>
+      <c r="AQ873" s="42"/>
+      <c r="AS873" s="42"/>
+    </row>
+    <row r="874" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP874" s="42"/>
+      <c r="AQ874" s="42"/>
+      <c r="AS874" s="42"/>
+    </row>
+    <row r="875" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP875" s="42"/>
+      <c r="AQ875" s="42"/>
+      <c r="AS875" s="42"/>
+    </row>
+    <row r="876" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP876" s="42"/>
+      <c r="AQ876" s="42"/>
+      <c r="AS876" s="42"/>
+    </row>
+    <row r="877" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP877" s="42"/>
+      <c r="AQ877" s="42"/>
+      <c r="AS877" s="42"/>
+    </row>
+    <row r="878" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP878" s="42"/>
+      <c r="AQ878" s="42"/>
+      <c r="AS878" s="42"/>
+    </row>
+    <row r="879" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP879" s="42"/>
+      <c r="AQ879" s="42"/>
+      <c r="AS879" s="42"/>
+    </row>
+    <row r="880" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP880" s="42"/>
+      <c r="AQ880" s="42"/>
+      <c r="AS880" s="42"/>
+    </row>
+    <row r="881" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP881" s="42"/>
+      <c r="AQ881" s="42"/>
+      <c r="AS881" s="42"/>
+    </row>
+    <row r="882" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP882" s="42"/>
+      <c r="AQ882" s="42"/>
+      <c r="AS882" s="42"/>
+    </row>
+    <row r="883" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP883" s="42"/>
+      <c r="AQ883" s="42"/>
+      <c r="AS883" s="42"/>
+    </row>
+    <row r="884" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP884" s="42"/>
+      <c r="AQ884" s="42"/>
+      <c r="AS884" s="42"/>
+    </row>
+    <row r="885" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP885" s="42"/>
+      <c r="AQ885" s="42"/>
+      <c r="AS885" s="42"/>
+    </row>
+    <row r="886" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP886" s="42"/>
+      <c r="AQ886" s="42"/>
+      <c r="AS886" s="42"/>
+    </row>
+    <row r="887" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP887" s="42"/>
+      <c r="AQ887" s="42"/>
+      <c r="AS887" s="42"/>
+    </row>
+    <row r="888" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP888" s="42"/>
+      <c r="AQ888" s="42"/>
+      <c r="AS888" s="42"/>
+    </row>
+    <row r="889" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP889" s="42"/>
+      <c r="AQ889" s="42"/>
+      <c r="AS889" s="42"/>
+    </row>
+    <row r="890" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP890" s="42"/>
+      <c r="AQ890" s="42"/>
+      <c r="AS890" s="42"/>
+    </row>
+    <row r="891" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP891" s="42"/>
+      <c r="AQ891" s="42"/>
+      <c r="AS891" s="42"/>
+    </row>
+    <row r="892" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP892" s="42"/>
+      <c r="AQ892" s="42"/>
+      <c r="AS892" s="42"/>
+    </row>
+    <row r="893" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP893" s="42"/>
+      <c r="AQ893" s="42"/>
+      <c r="AS893" s="42"/>
+    </row>
+    <row r="894" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP894" s="42"/>
+      <c r="AQ894" s="42"/>
+      <c r="AS894" s="42"/>
+    </row>
+    <row r="895" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP895" s="42"/>
+      <c r="AQ895" s="42"/>
+      <c r="AS895" s="42"/>
+    </row>
+    <row r="896" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP896" s="42"/>
+      <c r="AQ896" s="42"/>
+      <c r="AS896" s="42"/>
+    </row>
+    <row r="897" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP897" s="42"/>
+      <c r="AQ897" s="42"/>
+      <c r="AS897" s="42"/>
+    </row>
+    <row r="898" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP898" s="42"/>
+      <c r="AQ898" s="42"/>
+      <c r="AS898" s="42"/>
+    </row>
+    <row r="899" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP899" s="42"/>
+      <c r="AQ899" s="42"/>
+      <c r="AS899" s="42"/>
+    </row>
+    <row r="900" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP900" s="42"/>
+      <c r="AQ900" s="42"/>
+      <c r="AS900" s="42"/>
+    </row>
+    <row r="901" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP901" s="42"/>
+      <c r="AQ901" s="42"/>
+      <c r="AS901" s="42"/>
+    </row>
+    <row r="902" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP902" s="42"/>
+      <c r="AQ902" s="42"/>
+      <c r="AS902" s="42"/>
+    </row>
+    <row r="903" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP903" s="42"/>
+      <c r="AQ903" s="42"/>
+      <c r="AS903" s="42"/>
+    </row>
+    <row r="904" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP904" s="42"/>
+      <c r="AQ904" s="42"/>
+      <c r="AS904" s="42"/>
+    </row>
+    <row r="905" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP905" s="42"/>
+      <c r="AQ905" s="42"/>
+      <c r="AS905" s="42"/>
+    </row>
+    <row r="906" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP906" s="42"/>
+      <c r="AQ906" s="42"/>
+      <c r="AS906" s="42"/>
+    </row>
+    <row r="907" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP907" s="42"/>
+      <c r="AQ907" s="42"/>
+      <c r="AS907" s="42"/>
+    </row>
+    <row r="908" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP908" s="42"/>
+      <c r="AQ908" s="42"/>
+      <c r="AS908" s="42"/>
+    </row>
+    <row r="909" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP909" s="42"/>
+      <c r="AQ909" s="42"/>
+      <c r="AS909" s="42"/>
+    </row>
+    <row r="910" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP910" s="42"/>
+      <c r="AQ910" s="42"/>
+      <c r="AS910" s="42"/>
+    </row>
+    <row r="911" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP911" s="42"/>
+      <c r="AQ911" s="42"/>
+      <c r="AS911" s="42"/>
+    </row>
+    <row r="912" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP912" s="42"/>
+      <c r="AQ912" s="42"/>
+      <c r="AS912" s="42"/>
+    </row>
+    <row r="913" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP913" s="42"/>
+      <c r="AQ913" s="42"/>
+      <c r="AS913" s="42"/>
+    </row>
+    <row r="914" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP914" s="42"/>
+      <c r="AQ914" s="42"/>
+      <c r="AS914" s="42"/>
+    </row>
+    <row r="915" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP915" s="42"/>
+      <c r="AQ915" s="42"/>
+      <c r="AS915" s="42"/>
+    </row>
+    <row r="916" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP916" s="42"/>
+      <c r="AQ916" s="42"/>
+      <c r="AS916" s="42"/>
+    </row>
+    <row r="917" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP917" s="42"/>
+      <c r="AQ917" s="42"/>
+      <c r="AS917" s="42"/>
+    </row>
+    <row r="918" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP918" s="42"/>
+      <c r="AQ918" s="42"/>
+      <c r="AS918" s="42"/>
+    </row>
+    <row r="919" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP919" s="42"/>
+      <c r="AQ919" s="42"/>
+      <c r="AS919" s="42"/>
+    </row>
+    <row r="920" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP920" s="42"/>
+      <c r="AQ920" s="42"/>
+      <c r="AS920" s="42"/>
+    </row>
+    <row r="921" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP921" s="42"/>
+      <c r="AQ921" s="42"/>
+      <c r="AS921" s="42"/>
+    </row>
+    <row r="922" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP922" s="42"/>
+      <c r="AQ922" s="42"/>
+      <c r="AS922" s="42"/>
+    </row>
+    <row r="923" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP923" s="42"/>
+      <c r="AQ923" s="42"/>
+      <c r="AS923" s="42"/>
+    </row>
+    <row r="924" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP924" s="42"/>
+      <c r="AQ924" s="42"/>
+      <c r="AS924" s="42"/>
+    </row>
+    <row r="925" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP925" s="42"/>
+      <c r="AQ925" s="42"/>
+      <c r="AS925" s="42"/>
+    </row>
+    <row r="926" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP926" s="42"/>
+      <c r="AQ926" s="42"/>
+      <c r="AS926" s="42"/>
+    </row>
+    <row r="927" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP927" s="42"/>
+      <c r="AQ927" s="42"/>
+      <c r="AS927" s="42"/>
+    </row>
+    <row r="928" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP928" s="42"/>
+      <c r="AQ928" s="42"/>
+      <c r="AS928" s="42"/>
+    </row>
+    <row r="929" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP929" s="42"/>
+      <c r="AQ929" s="42"/>
+      <c r="AS929" s="42"/>
+    </row>
+    <row r="930" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP930" s="42"/>
+      <c r="AQ930" s="42"/>
+      <c r="AS930" s="42"/>
+    </row>
+    <row r="931" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP931" s="42"/>
+      <c r="AQ931" s="42"/>
+      <c r="AS931" s="42"/>
+    </row>
+    <row r="932" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP932" s="42"/>
+      <c r="AQ932" s="42"/>
+      <c r="AS932" s="42"/>
+    </row>
+    <row r="933" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP933" s="42"/>
+      <c r="AQ933" s="42"/>
+      <c r="AS933" s="42"/>
+    </row>
+    <row r="934" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP934" s="42"/>
+      <c r="AQ934" s="42"/>
+      <c r="AS934" s="42"/>
+    </row>
+    <row r="935" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP935" s="42"/>
+      <c r="AQ935" s="42"/>
+      <c r="AS935" s="42"/>
+    </row>
+    <row r="936" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP936" s="42"/>
+      <c r="AQ936" s="42"/>
+      <c r="AS936" s="42"/>
+    </row>
+    <row r="937" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP937" s="42"/>
+      <c r="AQ937" s="42"/>
+      <c r="AS937" s="42"/>
+    </row>
+    <row r="938" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP938" s="42"/>
+      <c r="AQ938" s="42"/>
+      <c r="AS938" s="42"/>
+    </row>
+    <row r="939" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP939" s="42"/>
+      <c r="AQ939" s="42"/>
+      <c r="AS939" s="42"/>
+    </row>
+    <row r="940" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP940" s="42"/>
+      <c r="AQ940" s="42"/>
+      <c r="AS940" s="42"/>
+    </row>
+    <row r="941" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP941" s="42"/>
+      <c r="AQ941" s="42"/>
+      <c r="AS941" s="42"/>
+    </row>
+    <row r="942" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP942" s="42"/>
+      <c r="AQ942" s="42"/>
+      <c r="AS942" s="42"/>
+    </row>
+    <row r="943" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP943" s="42"/>
+      <c r="AQ943" s="42"/>
+      <c r="AS943" s="42"/>
+    </row>
+    <row r="944" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP944" s="42"/>
+      <c r="AQ944" s="42"/>
+      <c r="AS944" s="42"/>
+    </row>
+    <row r="945" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP945" s="42"/>
+      <c r="AQ945" s="42"/>
+      <c r="AS945" s="42"/>
+    </row>
+    <row r="946" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP946" s="42"/>
+      <c r="AQ946" s="42"/>
+      <c r="AS946" s="42"/>
+    </row>
+    <row r="947" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP947" s="42"/>
+      <c r="AQ947" s="42"/>
+      <c r="AS947" s="42"/>
+    </row>
+    <row r="948" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP948" s="42"/>
+      <c r="AQ948" s="42"/>
+      <c r="AS948" s="42"/>
+    </row>
+    <row r="949" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP949" s="42"/>
+      <c r="AQ949" s="42"/>
+      <c r="AS949" s="42"/>
+    </row>
+    <row r="950" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP950" s="42"/>
+      <c r="AQ950" s="42"/>
+      <c r="AS950" s="42"/>
+    </row>
+    <row r="951" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP951" s="42"/>
+      <c r="AQ951" s="42"/>
+      <c r="AS951" s="42"/>
+    </row>
+    <row r="952" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP952" s="42"/>
+      <c r="AQ952" s="42"/>
+      <c r="AS952" s="42"/>
+    </row>
+    <row r="953" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP953" s="42"/>
+      <c r="AQ953" s="42"/>
+      <c r="AS953" s="42"/>
+    </row>
+    <row r="954" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP954" s="42"/>
+      <c r="AQ954" s="42"/>
+      <c r="AS954" s="42"/>
+    </row>
+    <row r="955" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP955" s="42"/>
+      <c r="AQ955" s="42"/>
+      <c r="AS955" s="42"/>
+    </row>
+    <row r="956" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP956" s="42"/>
+      <c r="AQ956" s="42"/>
+      <c r="AS956" s="42"/>
+    </row>
+    <row r="957" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP957" s="42"/>
+      <c r="AQ957" s="42"/>
+      <c r="AS957" s="42"/>
+    </row>
+    <row r="958" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP958" s="42"/>
+      <c r="AQ958" s="42"/>
+      <c r="AS958" s="42"/>
+    </row>
+    <row r="959" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP959" s="42"/>
+      <c r="AQ959" s="42"/>
+      <c r="AS959" s="42"/>
+    </row>
+    <row r="960" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP960" s="42"/>
+      <c r="AQ960" s="42"/>
+      <c r="AS960" s="42"/>
+    </row>
+    <row r="961" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP961" s="42"/>
+      <c r="AQ961" s="42"/>
+      <c r="AS961" s="42"/>
+    </row>
+    <row r="962" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP962" s="42"/>
+      <c r="AQ962" s="42"/>
+      <c r="AS962" s="42"/>
+    </row>
+    <row r="963" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP963" s="42"/>
+      <c r="AQ963" s="42"/>
+      <c r="AS963" s="42"/>
+    </row>
+    <row r="964" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP964" s="42"/>
+      <c r="AQ964" s="42"/>
+      <c r="AS964" s="42"/>
+    </row>
+    <row r="965" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP965" s="42"/>
+      <c r="AQ965" s="42"/>
+      <c r="AS965" s="42"/>
+    </row>
+    <row r="966" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP966" s="42"/>
+      <c r="AQ966" s="42"/>
+      <c r="AS966" s="42"/>
+    </row>
+    <row r="967" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP967" s="42"/>
+      <c r="AQ967" s="42"/>
+      <c r="AS967" s="42"/>
+    </row>
+    <row r="968" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP968" s="42"/>
+      <c r="AQ968" s="42"/>
+      <c r="AS968" s="42"/>
+    </row>
+    <row r="969" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP969" s="42"/>
+      <c r="AQ969" s="42"/>
+      <c r="AS969" s="42"/>
+    </row>
+    <row r="970" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP970" s="42"/>
+      <c r="AQ970" s="42"/>
+      <c r="AS970" s="42"/>
+    </row>
+    <row r="971" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP971" s="42"/>
+      <c r="AQ971" s="42"/>
+      <c r="AS971" s="42"/>
+    </row>
+    <row r="972" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP972" s="42"/>
+      <c r="AQ972" s="42"/>
+      <c r="AS972" s="42"/>
+    </row>
+    <row r="973" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP973" s="42"/>
+      <c r="AQ973" s="42"/>
+      <c r="AS973" s="42"/>
+    </row>
+    <row r="974" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP974" s="42"/>
+      <c r="AQ974" s="42"/>
+      <c r="AS974" s="42"/>
+    </row>
+    <row r="975" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP975" s="42"/>
+      <c r="AQ975" s="42"/>
+      <c r="AS975" s="42"/>
+    </row>
+    <row r="976" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP976" s="42"/>
+      <c r="AQ976" s="42"/>
+      <c r="AS976" s="42"/>
+    </row>
+    <row r="977" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP977" s="42"/>
+      <c r="AQ977" s="42"/>
+      <c r="AS977" s="42"/>
+    </row>
+    <row r="978" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP978" s="42"/>
+      <c r="AQ978" s="42"/>
+      <c r="AS978" s="42"/>
+    </row>
+    <row r="979" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP979" s="42"/>
+      <c r="AQ979" s="42"/>
+      <c r="AS979" s="42"/>
+    </row>
+    <row r="980" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP980" s="42"/>
+      <c r="AQ980" s="42"/>
+      <c r="AS980" s="42"/>
+    </row>
+    <row r="981" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP981" s="42"/>
+      <c r="AQ981" s="42"/>
+      <c r="AS981" s="42"/>
+    </row>
+    <row r="982" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP982" s="42"/>
+      <c r="AQ982" s="42"/>
+      <c r="AS982" s="42"/>
+    </row>
+    <row r="983" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP983" s="42"/>
+      <c r="AQ983" s="42"/>
+      <c r="AS983" s="42"/>
+    </row>
+    <row r="984" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP984" s="42"/>
+      <c r="AQ984" s="42"/>
+      <c r="AS984" s="42"/>
+    </row>
+    <row r="985" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP985" s="42"/>
+      <c r="AQ985" s="42"/>
+      <c r="AS985" s="42"/>
+    </row>
+    <row r="986" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP986" s="42"/>
+      <c r="AQ986" s="42"/>
+      <c r="AS986" s="42"/>
+    </row>
+    <row r="987" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP987" s="42"/>
+      <c r="AQ987" s="42"/>
+      <c r="AS987" s="42"/>
+    </row>
+    <row r="988" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP988" s="42"/>
+      <c r="AQ988" s="42"/>
+      <c r="AS988" s="42"/>
+    </row>
+    <row r="989" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP989" s="42"/>
+      <c r="AQ989" s="42"/>
+      <c r="AS989" s="42"/>
+    </row>
+    <row r="990" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP990" s="42"/>
+      <c r="AQ990" s="42"/>
+      <c r="AS990" s="42"/>
+    </row>
+    <row r="991" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP991" s="42"/>
+      <c r="AQ991" s="42"/>
+      <c r="AS991" s="42"/>
+    </row>
+    <row r="992" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP992" s="42"/>
+      <c r="AQ992" s="42"/>
+      <c r="AS992" s="42"/>
+    </row>
+    <row r="993" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP993" s="42"/>
+      <c r="AQ993" s="42"/>
+      <c r="AS993" s="42"/>
+    </row>
+    <row r="994" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP994" s="42"/>
+      <c r="AQ994" s="42"/>
+      <c r="AS994" s="42"/>
+    </row>
+    <row r="995" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP995" s="42"/>
+      <c r="AQ995" s="42"/>
+      <c r="AS995" s="42"/>
+    </row>
+    <row r="996" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP996" s="42"/>
+      <c r="AQ996" s="42"/>
+      <c r="AS996" s="42"/>
+    </row>
+    <row r="997" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP997" s="42"/>
+      <c r="AQ997" s="42"/>
+      <c r="AS997" s="42"/>
+    </row>
+    <row r="998" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP998" s="42"/>
+      <c r="AQ998" s="42"/>
+      <c r="AS998" s="42"/>
+    </row>
+    <row r="999" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP999" s="42"/>
+      <c r="AQ999" s="42"/>
+      <c r="AS999" s="42"/>
+    </row>
+    <row r="1000" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1000" s="42"/>
+      <c r="AQ1000" s="42"/>
+      <c r="AS1000" s="42"/>
+    </row>
+    <row r="1001" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1001" s="42"/>
+      <c r="AQ1001" s="42"/>
+      <c r="AS1001" s="42"/>
+    </row>
+    <row r="1002" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1002" s="42"/>
+      <c r="AQ1002" s="42"/>
+      <c r="AS1002" s="42"/>
+    </row>
+    <row r="1003" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1003" s="42"/>
+      <c r="AQ1003" s="42"/>
+      <c r="AS1003" s="42"/>
+    </row>
+    <row r="1004" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1004" s="42"/>
+      <c r="AQ1004" s="42"/>
+      <c r="AS1004" s="42"/>
+    </row>
+    <row r="1005" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1005" s="42"/>
+      <c r="AQ1005" s="42"/>
+      <c r="AS1005" s="42"/>
+    </row>
+    <row r="1006" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1006" s="42"/>
+      <c r="AQ1006" s="42"/>
+      <c r="AS1006" s="42"/>
+    </row>
+    <row r="1007" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1007" s="42"/>
+      <c r="AQ1007" s="42"/>
+      <c r="AS1007" s="42"/>
+    </row>
+    <row r="1008" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1008" s="42"/>
+      <c r="AQ1008" s="42"/>
+      <c r="AS1008" s="42"/>
+    </row>
+    <row r="1009" spans="42:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP1009" s="42"/>
+      <c r="AQ1009" s="42"/>
+      <c r="AS1009" s="42"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AQ2:AU1009">
+    <sortCondition ref="AQ1:AQ1009"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14580,7 +19809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="AS15" sqref="AS15"/>

--- a/viburnum_h_data_calc.xlsx
+++ b/viburnum_h_data_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Documents\Viburnum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3D40B4-C4AC-4F79-8254-9609B7643CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB82FAD-4C39-4E1B-9393-8A2A156EB62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10644" yWindow="300" windowWidth="10164" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="371">
   <si>
     <t>H1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1220,6 +1220,12 @@
   </si>
   <si>
     <t>avg_vein_angle</t>
+  </si>
+  <si>
+    <t>Avg_vein_angle</t>
+  </si>
+  <si>
+    <t>inflorescence_mass</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1568,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:ln w="9525">
                   <a:noFill/>
@@ -1585,7 +1591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{284F649E-65C1-4DDB-9BF9-85C7A0305235}" type="CELLRANGE">
+                    <a:fld id="{87CDD472-4F60-4832-B2A8-C82729E891E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1619,7 +1625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A0BC42D-B289-48D8-A3A9-943E2F644368}" type="CELLRANGE">
+                    <a:fld id="{BE27F846-A70B-4D61-9884-4DE95A1CD026}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2026,6 +2032,90 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D7ED-45B9-BA0F-1360E8117F27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D7ED-45B9-BA0F-1360E8117F27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D7ED-45B9-BA0F-1360E8117F27}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2086,10 +2176,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$32</c:f>
+              <c:f>Sheet2!$D$2:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4.83157836</c:v>
                 </c:pt>
@@ -2181,6 +2271,15 @@
                   <c:v>2.7469343359999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>10.508286869999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.5626</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.089739999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>21.144933368</c:v>
                 </c:pt>
               </c:numCache>
@@ -2188,10 +2287,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$32</c:f>
+              <c:f>Sheet2!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>12930312.220000001</c:v>
                 </c:pt>
@@ -2283,6 +2382,15 @@
                   <c:v>788.80179999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>2098.8451359999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>112.79989999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.6033849999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>9.0943489999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -2724,9 +2832,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$28</c:f>
+              <c:f>Sheet2!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Cell_surf_area</c:v>
                 </c:pt>
@@ -2808,15 +2916,33 @@
                 <c:pt idx="26">
                   <c:v>Thick</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>Guard Cell</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Genome Size</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Chromosome Count</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Avg_vein_angle</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>mean_leaf_lifespan</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>inflorescence_mass</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$28</c:f>
+              <c:f>Sheet2!$G$2:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.1970968054404532</c:v>
                 </c:pt>
@@ -2897,6 +3023,24 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.1833879329537866</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93972651427731968</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59637093713400291</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47027298341869744</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99977223357039369</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96591014283931875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3379776808047197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,6 +3302,28 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A444-40F9-82EE-DA34DCFA4AE7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:ln w="9525">
@@ -3169,7 +3335,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A444-40F9-82EE-DA34DCFA4AE7}"/>
+                <c16:uniqueId val="{00000003-F1D3-435E-83EC-12C924F0E28C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3187,7 +3353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59E9613B-4F78-4BE2-9F26-7404BC3D2CD6}" type="CELLRANGE">
+                    <a:fld id="{52D455C9-0EAD-4331-8EC8-5BD5C37E2DC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3226,7 +3392,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E660BE83-3D0E-49D7-880E-F2D3683D2930}" type="CELLRANGE">
+                    <a:fld id="{FA658D7A-ACA9-42BC-833B-96DA04852669}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3265,7 +3431,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D16580D-929C-4D0F-A584-F5250CDDB799}" type="CELLRANGE">
+                    <a:fld id="{21171ECE-B94A-4F09-9909-70D284EC7052}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3304,7 +3470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0D3F328-A154-42FC-918E-BBB9F15B50A7}" type="CELLRANGE">
+                    <a:fld id="{B382EBF2-B90C-46A2-8196-2DCE5F9B3431}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3343,7 +3509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A70C506-4E71-4ED7-9F83-8FC6FBCF7252}" type="CELLRANGE">
+                    <a:fld id="{07FB9736-1489-4AA9-B7DD-05DACE609521}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3382,7 +3548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB057DA2-673D-4F3C-B1FC-C7C0A74D9028}" type="CELLRANGE">
+                    <a:fld id="{DD8517B0-5AB5-40BA-B59D-8478D8208FC1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3421,7 +3587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{039E1CC4-0084-47EF-97A6-FE73A9E5C024}" type="CELLRANGE">
+                    <a:fld id="{BEACE0D5-8B1E-483A-8A87-30737C383F1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3460,7 +3626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26B9BAB9-9CA1-4996-86C2-E1F1C507514C}" type="CELLRANGE">
+                    <a:fld id="{07F2F37C-ABA9-47A5-89BD-A03DFFF955B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3499,7 +3665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2DA1E9B-900F-4C41-BC05-A50C80D54FEE}" type="CELLRANGE">
+                    <a:fld id="{2A219203-9FD8-4D5C-96CF-FFCB7237153B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3538,7 +3704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF6D785E-D918-48CB-833E-A30ABB15995E}" type="CELLRANGE">
+                    <a:fld id="{E738E8BC-C1D1-4E65-A9AC-52E7938C650E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3571,7 +3737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEE0E829-D4C8-47FF-A752-C03D849836F6}" type="CELLRANGE">
+                    <a:fld id="{D2827DC9-EE4C-437F-8DF0-ACEA7566A9BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3611,7 +3777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85021D9B-FC9E-44ED-9FE5-1B2A824E7ACF}" type="CELLRANGE">
+                    <a:fld id="{8ACECF6D-46AC-4DF7-A8DA-FD51097570B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3650,7 +3816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59173FBD-5523-422F-8257-812AE89877C1}" type="CELLRANGE">
+                    <a:fld id="{E5B21FA6-C740-4F4E-8DD4-9647EA49B72E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3689,7 +3855,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{343805C2-A3C5-4E0E-B963-965A17A06DFA}" type="CELLRANGE">
+                    <a:fld id="{2493304A-6B6A-4C4E-ACAD-B7F576544BAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3728,7 +3894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7304F095-9D9F-42DE-9E55-244A4BE32A76}" type="CELLRANGE">
+                    <a:fld id="{1C30F7C0-B450-40D3-9460-CECFDB2F214F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3767,7 +3933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{144B9E74-17BC-4BE6-82D6-DC6CA7D280E1}" type="CELLRANGE">
+                    <a:fld id="{BB7BCB28-75E9-4B59-A4AC-F3EC15FD4AA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3806,7 +3972,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C694387C-4E6D-44E9-8348-F4D02A7F817E}" type="CELLRANGE">
+                    <a:fld id="{3507A15E-2777-4D5A-862E-B89586AEAA3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3845,7 +4011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4D65383-6351-4B75-8089-3BBE971BBED0}" type="CELLRANGE">
+                    <a:fld id="{17172BDC-B62F-4E87-9207-36B0F119848A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3884,7 +4050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCEBB054-C089-4AB5-BAD8-3DF09C2A53DC}" type="CELLRANGE">
+                    <a:fld id="{2C694E19-7623-49E8-8A4F-47BF416B60CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3923,7 +4089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{799AEA95-6825-4C67-A9DA-D4D1776E7794}" type="CELLRANGE">
+                    <a:fld id="{5A879F87-2490-4E20-A0CD-EE665DF5C17C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3962,7 +4128,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB151A17-2DCE-407E-AEDE-C3FC1A46FA69}" type="CELLRANGE">
+                    <a:fld id="{120DEF3B-F2B1-41F8-9D4A-201F61C3E239}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4001,7 +4167,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD5DF2AE-7D7A-4EC9-BECA-482EE81F69EA}" type="CELLRANGE">
+                    <a:fld id="{ED84166D-7E2E-41B2-BF27-E7B449FBDCDC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4040,7 +4206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6216FB3-9E89-4DF1-9851-806BE9609DEE}" type="CELLRANGE">
+                    <a:fld id="{F1A100B7-E8A9-434A-BC35-83EA569DE141}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4079,7 +4245,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C36E425-474E-4961-8093-3E6A87D1A5EE}" type="CELLRANGE">
+                    <a:fld id="{779EEA2A-0775-482E-9634-52967F8AA00E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4118,7 +4284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC1D2F18-D994-472A-BED4-64909E6E132D}" type="CELLRANGE">
+                    <a:fld id="{9A5AA6F4-FEF1-4D26-A327-BA8A1CF0FEA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4157,7 +4323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70D1BCB5-541B-43BB-8523-7B8E4F41465E}" type="CELLRANGE">
+                    <a:fld id="{F8313E1E-17C8-4153-9BEA-D384B98798C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4196,7 +4362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4081E536-45E4-43AB-B39D-DBE5C8465C3A}" type="CELLRANGE">
+                    <a:fld id="{952B0085-2C89-46F8-BC2C-46F136C81039}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4235,7 +4401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA68FE32-D0FE-4C7D-AF26-BB3BE5259565}" type="CELLRANGE">
+                    <a:fld id="{43811313-37B4-4E9B-8CCE-8FF9CDAABBF4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4268,7 +4434,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBC9D0D0-4F16-42B9-84F8-2CB832D11821}" type="CELLRANGE">
+                    <a:fld id="{A440BB35-FC76-493A-A01E-B5F7784C788E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4292,6 +4458,113 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A444-40F9-82EE-DA34DCFA4AE7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4886750273636991E-2"/>
+                  <c:y val="-5.2533387622668321E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{72D4681D-BBA0-409B-8D68-E543B7ED66E1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F1D3-435E-83EC-12C924F0E28C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{736004A2-F232-4B90-89B4-24C1A5621059}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F1D3-435E-83EC-12C924F0E28C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{92E64336-D3CB-4C60-AF86-916A1193D17E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F1D3-435E-83EC-12C924F0E28C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4355,10 +4628,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$L$4:$L$32</c:f>
+              <c:f>Sheet2!$L$4:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.7776107699999999</c:v>
                 </c:pt>
@@ -4444,6 +4717,15 @@
                   <c:v>2.7469343359999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>10.508286869999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5626</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.089739999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>21.144933368</c:v>
                 </c:pt>
               </c:numCache>
@@ -4451,10 +4733,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$4:$M$32</c:f>
+              <c:f>Sheet2!$M$4:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>6.8084162199999998</c:v>
                 </c:pt>
@@ -4540,6 +4822,15 @@
                   <c:v>788.80179999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>2098.8451359999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112.79989999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6033849999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>9.0943489999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -4549,9 +4840,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet2!$A$4:$A$32</c15:f>
+                <c15:f>Sheet2!$A$4:$A$35</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="29"/>
+                  <c:ptCount val="32"/>
                   <c:pt idx="0">
                     <c:v>VLD_tot</c:v>
                   </c:pt>
@@ -4637,6 +4928,15 @@
                     <c:v>Chromosome Count</c:v>
                   </c:pt>
                   <c:pt idx="28">
+                    <c:v>Avg_vein_angle</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>mean_leaf_lifespan</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>inflorescence_mass</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
                     <c:v>Layer</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -6611,14 +6911,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>138287</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41190</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>140291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>515222</xdr:colOff>
+      <xdr:colOff>515223</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>140292</xdr:rowOff>
     </xdr:to>
@@ -6647,16 +6947,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>296334</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>5780</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>300567</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7009,7 +7309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F442B87C-976A-4250-AC73-55122F5E7EA9}">
   <dimension ref="A1:AV1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AR69" sqref="AR69"/>
     </sheetView>
@@ -29138,10 +29438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BCC657-4277-41CD-98B7-F7B3E82A6E21}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView zoomScale="39" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="AA40" zoomScale="105" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AM65" sqref="AM65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29218,7 +29518,7 @@
         <v>22216834.987</v>
       </c>
       <c r="G3" s="34">
-        <f t="shared" ref="G3:G31" si="0">C3/B3</f>
+        <f t="shared" ref="G3:G34" si="0">C3/B3</f>
         <v>0.65477669677220796</v>
       </c>
     </row>
@@ -29983,18 +30283,99 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B32">
+        <v>42.894820000000003</v>
+      </c>
+      <c r="C32">
+        <v>42.88505</v>
+      </c>
+      <c r="D32">
+        <v>10.508286869999999</v>
+      </c>
+      <c r="E32">
+        <v>2098.8451359999999</v>
+      </c>
+      <c r="G32" s="34">
+        <f t="shared" si="0"/>
+        <v>0.99977223357039369</v>
+      </c>
+      <c r="L32">
+        <v>10.508286869999999</v>
+      </c>
+      <c r="M32">
+        <v>2098.8451359999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33">
+        <v>24.8461</v>
+      </c>
+      <c r="C33">
+        <v>23.999099999999999</v>
+      </c>
+      <c r="D33">
+        <v>14.5626</v>
+      </c>
+      <c r="E33">
+        <v>112.79989999999999</v>
+      </c>
+      <c r="G33" s="34">
+        <f t="shared" si="0"/>
+        <v>0.96591014283931875</v>
+      </c>
+      <c r="L33">
+        <v>14.5626</v>
+      </c>
+      <c r="M33">
+        <v>112.79989999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34">
+        <v>0.55151629999999996</v>
+      </c>
+      <c r="C34">
+        <v>0.73791649999999998</v>
+      </c>
+      <c r="D34">
+        <v>38.089739999999999</v>
+      </c>
+      <c r="E34">
+        <v>9.6033849999999994</v>
+      </c>
+      <c r="G34" s="34">
+        <f t="shared" si="0"/>
+        <v>1.3379776808047197</v>
+      </c>
+      <c r="L34">
+        <v>38.089739999999999</v>
+      </c>
+      <c r="M34">
+        <v>9.6033849999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>303</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>21.144933368</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>9.0943489999999994</v>
       </c>
-      <c r="L32">
+      <c r="L35">
         <v>21.144933368</v>
       </c>
-      <c r="M32">
+      <c r="M35">
         <v>9.0943489999999994</v>
       </c>
     </row>

--- a/viburnum_h_data_calc.xlsx
+++ b/viburnum_h_data_calc.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Documents\Viburnum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB82FAD-4C39-4E1B-9393-8A2A156EB62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84036D88-4B39-4DFB-8B46-41971B743E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11364" yWindow="540" windowWidth="11676" windowHeight="11820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="shift_data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="437">
   <si>
     <t>H1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1226,6 +1227,204 @@
   </si>
   <si>
     <t>inflorescence_mass</t>
+  </si>
+  <si>
+    <t>H/I</t>
+  </si>
+  <si>
+    <t>number of shifts: 0</t>
+  </si>
+  <si>
+    <t>pBIC score: 211.1655</t>
+  </si>
+  <si>
+    <t>edge indices of the shift configuration (column names) and the corresponding shift values:</t>
+  </si>
+  <si>
+    <t>convergent regimes and edge indices of the shift configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   [,1]</t>
+  </si>
+  <si>
+    <t>adaptation rate (alpha)       5.7606796</t>
+  </si>
+  <si>
+    <t>variance (sigma2)             8.7939742</t>
+  </si>
+  <si>
+    <t>stationary variance (gamma)   0.7632758</t>
+  </si>
+  <si>
+    <t>logLik                      -99.1774307</t>
+  </si>
+  <si>
+    <t>IAStot</t>
+  </si>
+  <si>
+    <t>pBIC score: -121.1144</t>
+  </si>
+  <si>
+    <t>adaptation rate (alpha)      7.52901183</t>
+  </si>
+  <si>
+    <t>variance (sigma2)            0.15978840</t>
+  </si>
+  <si>
+    <t>stationary variance (gamma)  0.01061151</t>
+  </si>
+  <si>
+    <t>logLik                      67.01287317</t>
+  </si>
+  <si>
+    <t>number of shifts: 1</t>
+  </si>
+  <si>
+    <t>pBIC score: -411.655</t>
+  </si>
+  <si>
+    <t>s.v 0.1087955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    [,1]</t>
+  </si>
+  <si>
+    <t>adaptation rate (alpha)     7.529012e+00</t>
+  </si>
+  <si>
+    <t>variance (sigma2)           3.366542e-03</t>
+  </si>
+  <si>
+    <t>stationary variance (gamma) 2.235713e-04</t>
+  </si>
+  <si>
+    <t>logLik                      2.175515e+02</t>
+  </si>
+  <si>
+    <t>xy_area</t>
+  </si>
+  <si>
+    <t>s.v 0.359094</t>
+  </si>
+  <si>
+    <t>shift edges and corresponding jump in the trait means at the tips:           42</t>
+  </si>
+  <si>
+    <t>s.v 0.2343656</t>
+  </si>
+  <si>
+    <t>pBIC score: -137.6794</t>
+  </si>
+  <si>
+    <t>adaptation rate (alpha)     4.805580e+00</t>
+  </si>
+  <si>
+    <t>variance (sigma2)           2.267697e-03</t>
+  </si>
+  <si>
+    <t>stationary variance (gamma) 2.359442e-04</t>
+  </si>
+  <si>
+    <t>logLik                      8.004915e+01</t>
+  </si>
+  <si>
+    <t>osmotic full</t>
+  </si>
+  <si>
+    <t>s.v -0.4782776</t>
+  </si>
+  <si>
+    <t>shift edges and corresponding jump in the trait means at the tips:            30</t>
+  </si>
+  <si>
+    <t>s.v -0.4405943</t>
+  </si>
+  <si>
+    <t>pBIC score: -16.92954</t>
+  </si>
+  <si>
+    <t>adaptation rate (alpha)      4.80557953</t>
+  </si>
+  <si>
+    <t>variance (sigma2)            0.16635950</t>
+  </si>
+  <si>
+    <t>stationary variance (gamma)  0.01730899</t>
+  </si>
+  <si>
+    <t>logLik                      17.76604293</t>
+  </si>
+  <si>
+    <t>vld minor</t>
+  </si>
+  <si>
+    <t>s.v -13.3575</t>
+  </si>
+  <si>
+    <t>shift edges and corresponding jump in the trait means at the tips:            2</t>
+  </si>
+  <si>
+    <t>s.v -4.981729</t>
+  </si>
+  <si>
+    <t>pBIC score: 92.63022</t>
+  </si>
+  <si>
+    <t>adaptation rate (alpha)       2.2823892</t>
+  </si>
+  <si>
+    <t>variance (sigma2)             3.6280480</t>
+  </si>
+  <si>
+    <t>stationary variance (gamma)   0.7947917</t>
+  </si>
+  <si>
+    <t>logLik                      -36.6060502</t>
+  </si>
+  <si>
+    <t>$trait</t>
+  </si>
+  <si>
+    <t>[1] "Palisade"</t>
+  </si>
+  <si>
+    <t>$dist.phylo</t>
+  </si>
+  <si>
+    <t>[1] "patristic"</t>
+  </si>
+  <si>
+    <t>$sigma</t>
+  </si>
+  <si>
+    <t>[1] 0.3708121</t>
+  </si>
+  <si>
+    <t>$ci.bs</t>
+  </si>
+  <si>
+    <t>[1] 1000</t>
+  </si>
+  <si>
+    <t>$ci.conf</t>
+  </si>
+  <si>
+    <t>[1] 0.95</t>
+  </si>
+  <si>
+    <t>$n</t>
+  </si>
+  <si>
+    <t>[1] 78</t>
+  </si>
+  <si>
+    <t>[1] "IAStot.leaf"</t>
+  </si>
+  <si>
+    <t>[1] "chl.pal"</t>
+  </si>
+  <si>
+    <t>correlogram</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87CDD472-4F60-4832-B2A8-C82729E891E1}" type="CELLRANGE">
+                    <a:fld id="{43723853-BA2C-439C-830C-EBBDEA350FD9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1625,7 +1824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE27F846-A70B-4D61-9884-4DE95A1CD026}" type="CELLRANGE">
+                    <a:fld id="{B7EB48A0-2A8A-434F-B42B-FBFC135B4206}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3353,7 +3552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52D455C9-0EAD-4331-8EC8-5BD5C37E2DC7}" type="CELLRANGE">
+                    <a:fld id="{5CA4C870-8DAD-4CC3-AEFE-2508CC627F49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3392,7 +3591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA658D7A-ACA9-42BC-833B-96DA04852669}" type="CELLRANGE">
+                    <a:fld id="{BDF77417-6C19-4196-9D8E-3BD1D658D910}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3431,7 +3630,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21171ECE-B94A-4F09-9909-70D284EC7052}" type="CELLRANGE">
+                    <a:fld id="{61888CBE-DE5A-430E-AF09-D0BA750D4A9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3470,7 +3669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B382EBF2-B90C-46A2-8196-2DCE5F9B3431}" type="CELLRANGE">
+                    <a:fld id="{0CA67433-7306-4A4E-8D81-10378A671AB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3509,7 +3708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07FB9736-1489-4AA9-B7DD-05DACE609521}" type="CELLRANGE">
+                    <a:fld id="{C50BE246-A0B7-4AF7-89D7-8E457C0D47C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3548,7 +3747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD8517B0-5AB5-40BA-B59D-8478D8208FC1}" type="CELLRANGE">
+                    <a:fld id="{9394D3F7-3851-46E1-A64A-9B291ECE05E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3587,7 +3786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEACE0D5-8B1E-483A-8A87-30737C383F1C}" type="CELLRANGE">
+                    <a:fld id="{C1EF535A-D016-403C-8BAD-72A648CE5DAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3626,7 +3825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07F2F37C-ABA9-47A5-89BD-A03DFFF955B4}" type="CELLRANGE">
+                    <a:fld id="{6B273A0C-674C-45AB-8220-87F2D4BD8F29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3665,7 +3864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A219203-9FD8-4D5C-96CF-FFCB7237153B}" type="CELLRANGE">
+                    <a:fld id="{FB777D2E-0EEB-480D-AD42-EFEF4817BEEB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3704,7 +3903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E738E8BC-C1D1-4E65-A9AC-52E7938C650E}" type="CELLRANGE">
+                    <a:fld id="{F3F43617-F445-4B0A-A403-B8586782CDE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3737,7 +3936,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2827DC9-EE4C-437F-8DF0-ACEA7566A9BA}" type="CELLRANGE">
+                    <a:fld id="{066B2438-2D92-47A7-86FB-4506AF0CDE27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3777,7 +3976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8ACECF6D-46AC-4DF7-A8DA-FD51097570B9}" type="CELLRANGE">
+                    <a:fld id="{A921FF16-93DE-4FCC-B831-6F8C73E5A31D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3816,7 +4015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5B21FA6-C740-4F4E-8DD4-9647EA49B72E}" type="CELLRANGE">
+                    <a:fld id="{09C735BA-A751-4830-A322-9DEC6FCD56AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3855,7 +4054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2493304A-6B6A-4C4E-ACAD-B7F576544BAA}" type="CELLRANGE">
+                    <a:fld id="{13D93349-111A-4572-BE3F-8B4658E6C855}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3894,7 +4093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C30F7C0-B450-40D3-9460-CECFDB2F214F}" type="CELLRANGE">
+                    <a:fld id="{B683D23A-7663-42CF-9C70-8E54D17A89BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3933,7 +4132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB7BCB28-75E9-4B59-A4AC-F3EC15FD4AA8}" type="CELLRANGE">
+                    <a:fld id="{F2453D4C-A7EC-4EF1-9237-7E9B52FE03B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3972,7 +4171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3507A15E-2777-4D5A-862E-B89586AEAA3E}" type="CELLRANGE">
+                    <a:fld id="{D9ABC908-A79B-4DAB-874E-89D0E898A13F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4011,7 +4210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17172BDC-B62F-4E87-9207-36B0F119848A}" type="CELLRANGE">
+                    <a:fld id="{3E655461-3414-453A-AEBB-E5EED9BE82F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4050,7 +4249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C694E19-7623-49E8-8A4F-47BF416B60CB}" type="CELLRANGE">
+                    <a:fld id="{F2A6729C-A9F5-42B8-9396-9361550A73FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4089,7 +4288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A879F87-2490-4E20-A0CD-EE665DF5C17C}" type="CELLRANGE">
+                    <a:fld id="{F2D54CB4-B648-4A38-815D-C4ACC4723585}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4128,7 +4327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{120DEF3B-F2B1-41F8-9D4A-201F61C3E239}" type="CELLRANGE">
+                    <a:fld id="{862E4DBF-F572-4D5F-9E60-9605D0869EE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4167,7 +4366,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED84166D-7E2E-41B2-BF27-E7B449FBDCDC}" type="CELLRANGE">
+                    <a:fld id="{48780B3C-1544-4CD3-A2AA-403CF150C37F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4206,7 +4405,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1A100B7-E8A9-434A-BC35-83EA569DE141}" type="CELLRANGE">
+                    <a:fld id="{62DB0206-59E3-43BB-96E4-3280C6A6F2A5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4245,7 +4444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{779EEA2A-0775-482E-9634-52967F8AA00E}" type="CELLRANGE">
+                    <a:fld id="{CA0B3D02-5D79-42A9-B55F-5E80C81586BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4284,7 +4483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A5AA6F4-FEF1-4D26-A327-BA8A1CF0FEA3}" type="CELLRANGE">
+                    <a:fld id="{AF48841A-768E-4353-BF38-6370AC721F18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4323,7 +4522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8313E1E-17C8-4153-9BEA-D384B98798C3}" type="CELLRANGE">
+                    <a:fld id="{EBC86E4A-6706-48A2-8DAB-AAD10CCCA765}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4362,7 +4561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{952B0085-2C89-46F8-BC2C-46F136C81039}" type="CELLRANGE">
+                    <a:fld id="{8F4BF4DF-4EDA-4DFE-B50D-4B27676C79B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4401,7 +4600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43811313-37B4-4E9B-8CCE-8FF9CDAABBF4}" type="CELLRANGE">
+                    <a:fld id="{7A0B091F-3668-43E1-A1E1-6EC738B0444B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4434,7 +4633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A440BB35-FC76-493A-A01E-B5F7784C788E}" type="CELLRANGE">
+                    <a:fld id="{E38AC1E8-3F59-4A52-A776-F976AE6DAF84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4474,7 +4673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72D4681D-BBA0-409B-8D68-E543B7ED66E1}" type="CELLRANGE">
+                    <a:fld id="{883F8C70-FCF5-49F9-8636-8144D07FD696}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4507,7 +4706,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{736004A2-F232-4B90-89B4-24C1A5621059}" type="CELLRANGE">
+                    <a:fld id="{EF147B6B-BE39-49CE-9E51-E35082BF22AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4541,7 +4740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92E64336-D3CB-4C60-AF86-916A1193D17E}" type="CELLRANGE">
+                    <a:fld id="{65D4F44B-E7DE-4F71-B13C-6FAC6AAA75C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -29440,7 +29639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BCC657-4277-41CD-98B7-F7B3E82A6E21}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA40" zoomScale="105" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="AA40" zoomScale="105" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="AM65" sqref="AM65"/>
     </sheetView>
   </sheetViews>
@@ -30384,4 +30583,484 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F12D5C8-6085-428D-87F3-C0B8D4C2BC65}">
+  <dimension ref="A1:L88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J4" t="s">
+        <v>424</v>
+      </c>
+      <c r="L4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" t="s">
+        <v>425</v>
+      </c>
+      <c r="J5" t="s">
+        <v>425</v>
+      </c>
+      <c r="L5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" t="s">
+        <v>426</v>
+      </c>
+      <c r="J7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="H8" t="s">
+        <v>427</v>
+      </c>
+      <c r="J8" t="s">
+        <v>427</v>
+      </c>
+      <c r="L8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H10" t="s">
+        <v>428</v>
+      </c>
+      <c r="J10" t="s">
+        <v>428</v>
+      </c>
+      <c r="L10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" t="s">
+        <v>429</v>
+      </c>
+      <c r="J11" t="s">
+        <v>429</v>
+      </c>
+      <c r="L11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>430</v>
+      </c>
+      <c r="J13" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>431</v>
+      </c>
+      <c r="J14" t="s">
+        <v>431</v>
+      </c>
+      <c r="L14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" t="s">
+        <v>432</v>
+      </c>
+      <c r="J16" t="s">
+        <v>432</v>
+      </c>
+      <c r="L16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" t="s">
+        <v>433</v>
+      </c>
+      <c r="J17" t="s">
+        <v>433</v>
+      </c>
+      <c r="L17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>